--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_12_24.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_12_24.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1308457.362074476</v>
+        <v>1305756.712451167</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673437</v>
+        <v>603248.4937673436</v>
       </c>
     </row>
     <row r="9">
@@ -668,16 +668,16 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>28.1947492807137</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>263.7138800015061</v>
+        <v>12.83417464571001</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>263.7138800015063</v>
       </c>
       <c r="I2" t="n">
-        <v>115.3066195468971</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -710,13 +710,13 @@
         <v>152.7676931992223</v>
       </c>
       <c r="T2" t="n">
-        <v>212.2897156032232</v>
+        <v>72.3669840419067</v>
       </c>
       <c r="U2" t="n">
         <v>251.1481678782825</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>263.7138800015063</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -735,28 +735,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>136.0227195864234</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>99.47932027120976</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>43.92180400150561</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,16 +783,16 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>18.1525249552777</v>
+        <v>18.15252495527767</v>
       </c>
       <c r="S3" t="n">
-        <v>147.1499354121988</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>225.8544875035546</v>
       </c>
       <c r="V3" t="n">
         <v>232.8005871494253</v>
@@ -801,10 +801,10 @@
         <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>200.8247217404206</v>
+        <v>26.95228090977732</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="4">
@@ -814,16 +814,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>34.52670189341654</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -838,7 +838,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>15.07219909888211</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -865,13 +865,13 @@
         <v>127.5046028836639</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>204.7191642435938</v>
       </c>
       <c r="T4" t="n">
-        <v>223.2143458795659</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>263.7138800015063</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -880,10 +880,10 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>164.1169137205988</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -893,28 +893,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>288.5102079953264</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>383.0198440937156</v>
       </c>
       <c r="G5" t="n">
-        <v>59.84596780479407</v>
+        <v>12.42130226825858</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>99.38935721520052</v>
+        <v>99.38935721520066</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,13 +944,13 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>143.3593638980477</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>210.4823667709296</v>
       </c>
       <c r="U5" t="n">
-        <v>251.1151380880864</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -972,16 +972,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>115.013756753629</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
@@ -990,10 +990,10 @@
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>23.1979621853939</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>36.31604239259334</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,22 +1020,22 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>4.436963001677313</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>143.0466996907028</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
         <v>193.950580588878</v>
       </c>
       <c r="U6" t="n">
-        <v>225.8399542011172</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
         <v>205.7729852034775</v>
@@ -1051,7 +1051,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -1060,13 +1060,13 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>138.7483142878262</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>150.735559994784</v>
@@ -1075,7 +1075,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>1.978535422477833</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1099,25 +1099,25 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>119.177322371449</v>
+        <v>119.1773223714491</v>
       </c>
       <c r="S7" t="n">
-        <v>201.491627498362</v>
+        <v>201.4916274983621</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2485286662292</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>207.1722518073703</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1133,22 +1133,22 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>212.8139575878567</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
         <v>411.547702772954</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I8" t="n">
         <v>65.70991267247047</v>
@@ -1187,19 +1187,19 @@
         <v>206.6581849802338</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>2.739389635060738</v>
       </c>
     </row>
     <row r="9">
@@ -1291,13 +1291,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -1336,22 +1336,22 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>158.8647187371888</v>
       </c>
       <c r="U10" t="n">
-        <v>90.69811547110066</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -1373,22 +1373,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>182.0504627911002</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>410.4296912136494</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>289.5687166806773</v>
       </c>
       <c r="I11" t="n">
-        <v>22.60777203238027</v>
+        <v>22.60777203238032</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,10 +1418,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>97.97552699114104</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>201.7640893793779</v>
       </c>
       <c r="U11" t="n">
         <v>250.9558092037176</v>
@@ -1436,7 +1436,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>358.6087856860893</v>
       </c>
     </row>
     <row r="12">
@@ -1464,10 +1464,10 @@
         <v>134.7362075312412</v>
       </c>
       <c r="H12" t="n">
-        <v>87.05432226458124</v>
+        <v>87.05432226458126</v>
       </c>
       <c r="I12" t="n">
-        <v>9.753166794035238</v>
+        <v>9.753166794035252</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1528,25 +1528,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>42.26044714800495</v>
+        <v>124.1004521009512</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.8050985482227</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>142.7927049400678</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>89.71507747034039</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,19 +1573,19 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>79.00824149146339</v>
+        <v>79.00824149146341</v>
       </c>
       <c r="S13" t="n">
         <v>185.9226570076762</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>218.6059168754546</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.1997994941144</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
@@ -1619,7 +1619,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>409.8432760127576</v>
+        <v>359.551749875468</v>
       </c>
       <c r="H14" t="n">
         <v>283.5630920045443</v>
@@ -1655,13 +1655,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>84.61259060081963</v>
+        <v>84.61259060081962</v>
       </c>
       <c r="T14" t="n">
         <v>199.1970568374742</v>
       </c>
       <c r="U14" t="n">
-        <v>200.617369850355</v>
+        <v>250.9088959876463</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1701,7 +1701,7 @@
         <v>134.4224477376697</v>
       </c>
       <c r="H15" t="n">
-        <v>84.02406320561457</v>
+        <v>84.02406320561455</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1771,19 +1771,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5420528771669</v>
+        <v>81.3725990111934</v>
       </c>
       <c r="H16" t="n">
-        <v>140.4539897919539</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.80457674440903</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,22 +1810,22 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>67.18075159108356</v>
+        <v>67.18075159108355</v>
       </c>
       <c r="S16" t="n">
         <v>181.338488358459</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>217.4819944627618</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.1854515484204</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>191.9074132759359</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -1844,7 +1844,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710075</v>
       </c>
       <c r="D17" t="n">
         <v>354.683041620683</v>
@@ -2008,19 +2008,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>99.97427419833826</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,13 +2047,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>191.6604102493275</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
         <v>286.1844743892441</v>
@@ -2141,7 +2141,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174112</v>
       </c>
       <c r="X20" t="n">
         <v>369.731100678469</v>
@@ -2236,25 +2236,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>83.06560892427602</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2284,10 +2284,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012747</v>
       </c>
       <c r="S22" t="n">
-        <v>81.74333192602232</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
         <v>217.4054503272883</v>
@@ -2305,7 +2305,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2485,16 +2485,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>28.54004930889236</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2524,13 +2524,13 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2539,7 +2539,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>13.7258286485376</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -2716,7 +2716,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -2725,10 +2725,10 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>99.97427419833875</v>
       </c>
       <c r="H28" t="n">
-        <v>83.06560892428175</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2953,19 +2953,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>99.97427419833829</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>83.06560892428223</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -3190,7 +3190,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -3199,10 +3199,10 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>99.97427419833829</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>9.146142788179482</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3272,7 +3272,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722605</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
         <v>406.8760457417114</v>
@@ -3320,7 +3320,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U35" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -3427,16 +3427,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>103.1686991936194</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3469,10 +3469,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
-        <v>55.52079624060497</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
         <v>217.4054503272883</v>
@@ -3554,7 +3554,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
-        <v>199.0222304576155</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U38" t="n">
         <v>250.9057009881286</v>
@@ -3661,19 +3661,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>22.65115569188777</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>99.97427419833829</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3755,7 +3755,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H41" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444135</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3901,19 +3901,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>99.97427419833694</v>
       </c>
       <c r="F43" t="n">
-        <v>28.23631843387898</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4138,22 +4138,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>103.1686991936194</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4186,7 +4186,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
-        <v>78.91051008678028</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
         <v>286.1844743892441</v>
@@ -4304,46 +4304,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>432.4256445709457</v>
+        <v>307.3840804899465</v>
       </c>
       <c r="C2" t="n">
-        <v>432.4256445709457</v>
+        <v>307.3840804899465</v>
       </c>
       <c r="D2" t="n">
-        <v>432.4256445709457</v>
+        <v>307.3840804899465</v>
       </c>
       <c r="E2" t="n">
-        <v>432.4256445709457</v>
+        <v>307.3840804899465</v>
       </c>
       <c r="F2" t="n">
-        <v>403.9460998429521</v>
+        <v>300.438579740743</v>
       </c>
       <c r="G2" t="n">
-        <v>137.5684432757742</v>
+        <v>287.4747669672986</v>
       </c>
       <c r="H2" t="n">
-        <v>137.5684432757742</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="I2" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="J2" t="n">
-        <v>49.28269087917624</v>
+        <v>49.28269087917587</v>
       </c>
       <c r="K2" t="n">
-        <v>142.2640879052547</v>
+        <v>142.2640879052542</v>
       </c>
       <c r="L2" t="n">
-        <v>294.5174947515912</v>
+        <v>294.5174947515906</v>
       </c>
       <c r="M2" t="n">
-        <v>495.5981834030611</v>
+        <v>495.5981834030605</v>
       </c>
       <c r="N2" t="n">
-        <v>704.5463761991323</v>
+        <v>704.5463761991319</v>
       </c>
       <c r="O2" t="n">
-        <v>888.5149683358418</v>
+        <v>888.5149683358417</v>
       </c>
       <c r="P2" t="n">
         <v>1011.026904601763</v>
@@ -4355,25 +4355,25 @@
         <v>1054.855520006025</v>
       </c>
       <c r="S2" t="n">
-        <v>900.5447187946889</v>
+        <v>900.5447187946894</v>
       </c>
       <c r="T2" t="n">
-        <v>686.1106626298169</v>
+        <v>827.4467551159958</v>
       </c>
       <c r="U2" t="n">
-        <v>432.4256445709457</v>
+        <v>573.7617370571245</v>
       </c>
       <c r="V2" t="n">
-        <v>432.4256445709457</v>
+        <v>307.3840804899465</v>
       </c>
       <c r="W2" t="n">
-        <v>432.4256445709457</v>
+        <v>307.3840804899465</v>
       </c>
       <c r="X2" t="n">
-        <v>432.4256445709457</v>
+        <v>307.3840804899465</v>
       </c>
       <c r="Y2" t="n">
-        <v>432.4256445709457</v>
+        <v>307.3840804899465</v>
       </c>
     </row>
     <row r="3">
@@ -4383,49 +4383,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>449.8779753016586</v>
+        <v>170.0315200613718</v>
       </c>
       <c r="C3" t="n">
-        <v>449.8779753016586</v>
+        <v>170.0315200613718</v>
       </c>
       <c r="D3" t="n">
-        <v>449.8779753016586</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="E3" t="n">
-        <v>449.8779753016586</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="F3" t="n">
-        <v>303.3434173285435</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="G3" t="n">
-        <v>165.9467308776108</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="H3" t="n">
-        <v>65.46256898749989</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="I3" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="J3" t="n">
-        <v>117.4455628004806</v>
+        <v>46.96951069551308</v>
       </c>
       <c r="K3" t="n">
-        <v>192.1295835699347</v>
+        <v>121.6535314649673</v>
       </c>
       <c r="L3" t="n">
-        <v>338.8740072302313</v>
+        <v>268.397955125264</v>
       </c>
       <c r="M3" t="n">
-        <v>529.4746963267551</v>
+        <v>529.4746963267552</v>
       </c>
       <c r="N3" t="n">
-        <v>739.52866342936</v>
+        <v>739.5286634293602</v>
       </c>
       <c r="O3" t="n">
-        <v>909.4672107560897</v>
+        <v>909.46721075609</v>
       </c>
       <c r="P3" t="n">
-        <v>1026.524810789493</v>
+        <v>1026.524810789494</v>
       </c>
       <c r="Q3" t="n">
         <v>1054.855520006025</v>
@@ -4434,25 +4434,25 @@
         <v>1036.519636212815</v>
       </c>
       <c r="S3" t="n">
-        <v>887.8833378166544</v>
+        <v>1036.519636212815</v>
       </c>
       <c r="T3" t="n">
-        <v>887.8833378166544</v>
+        <v>1036.519636212815</v>
       </c>
       <c r="U3" t="n">
-        <v>887.8833378166544</v>
+        <v>808.3837902496286</v>
       </c>
       <c r="V3" t="n">
-        <v>652.7312295849117</v>
+        <v>573.231682017886</v>
       </c>
       <c r="W3" t="n">
-        <v>652.7312295849117</v>
+        <v>573.231682017886</v>
       </c>
       <c r="X3" t="n">
-        <v>449.8779753016586</v>
+        <v>546.0071558463937</v>
       </c>
       <c r="Y3" t="n">
-        <v>449.8779753016586</v>
+        <v>338.2468570814398</v>
       </c>
     </row>
     <row r="4">
@@ -4462,46 +4462,46 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>353.1708304446449</v>
+        <v>224.9087497860239</v>
       </c>
       <c r="C4" t="n">
-        <v>184.234647516738</v>
+        <v>55.97256685811701</v>
       </c>
       <c r="D4" t="n">
-        <v>184.234647516738</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="E4" t="n">
-        <v>36.32155393434485</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="F4" t="n">
-        <v>36.32155393434485</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="G4" t="n">
-        <v>36.32155393434485</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="H4" t="n">
-        <v>36.32155393434485</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="I4" t="n">
-        <v>36.32155393434485</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="J4" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="K4" t="n">
-        <v>126.4133765287947</v>
+        <v>126.4133765287949</v>
       </c>
       <c r="L4" t="n">
-        <v>316.7083726551009</v>
+        <v>316.7083726551011</v>
       </c>
       <c r="M4" t="n">
-        <v>527.7368878375336</v>
+        <v>527.7368878375338</v>
       </c>
       <c r="N4" t="n">
-        <v>739.1822330227046</v>
+        <v>739.1822330227047</v>
       </c>
       <c r="O4" t="n">
-        <v>918.4699372075543</v>
+        <v>918.4699372075546</v>
       </c>
       <c r="P4" t="n">
         <v>1048.360858816803</v>
@@ -4510,28 +4510,28 @@
         <v>1054.855520006025</v>
       </c>
       <c r="R4" t="n">
-        <v>926.0629918407075</v>
+        <v>926.0629918407079</v>
       </c>
       <c r="S4" t="n">
-        <v>926.0629918407075</v>
+        <v>719.2759572512193</v>
       </c>
       <c r="T4" t="n">
-        <v>700.5939555987218</v>
+        <v>719.2759572512193</v>
       </c>
       <c r="U4" t="n">
-        <v>700.5939555987218</v>
+        <v>452.8983006840413</v>
       </c>
       <c r="V4" t="n">
-        <v>700.5939555987218</v>
+        <v>452.8983006840413</v>
       </c>
       <c r="W4" t="n">
-        <v>700.5939555987218</v>
+        <v>452.8983006840413</v>
       </c>
       <c r="X4" t="n">
-        <v>700.5939555987218</v>
+        <v>224.9087497860239</v>
       </c>
       <c r="Y4" t="n">
-        <v>534.8192952748846</v>
+        <v>224.9087497860239</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>925.6590664703222</v>
+        <v>530.4703790195931</v>
       </c>
       <c r="C5" t="n">
-        <v>556.6965495299105</v>
+        <v>530.4703790195931</v>
       </c>
       <c r="D5" t="n">
-        <v>198.43085092316</v>
+        <v>530.4703790195931</v>
       </c>
       <c r="E5" t="n">
-        <v>198.43085092316</v>
+        <v>530.4703790195931</v>
       </c>
       <c r="F5" t="n">
-        <v>191.4853501739565</v>
+        <v>143.5816476117995</v>
       </c>
       <c r="G5" t="n">
-        <v>131.0348776438615</v>
+        <v>131.0348776438616</v>
       </c>
       <c r="H5" t="n">
-        <v>131.0348776438615</v>
+        <v>131.0348776438616</v>
       </c>
       <c r="I5" t="n">
-        <v>30.64158752749734</v>
+        <v>30.64158752749725</v>
       </c>
       <c r="J5" t="n">
-        <v>93.51877468281464</v>
+        <v>93.51877468281413</v>
       </c>
       <c r="K5" t="n">
-        <v>238.4938972452987</v>
+        <v>238.4938972452979</v>
       </c>
       <c r="L5" t="n">
-        <v>455.2501182192564</v>
+        <v>455.2501182192549</v>
       </c>
       <c r="M5" t="n">
-        <v>728.1026159494245</v>
+        <v>728.1026159494223</v>
       </c>
       <c r="N5" t="n">
-        <v>1009.983960730204</v>
+        <v>1009.9839607302</v>
       </c>
       <c r="O5" t="n">
-        <v>1262.821260145371</v>
+        <v>1262.821260145367</v>
       </c>
       <c r="P5" t="n">
-        <v>1444.111044739601</v>
+        <v>1444.111044739597</v>
       </c>
       <c r="Q5" t="n">
-        <v>1532.079376374867</v>
+        <v>1532.079376374862</v>
       </c>
       <c r="R5" t="n">
-        <v>1532.079376374867</v>
+        <v>1532.079376374862</v>
       </c>
       <c r="S5" t="n">
-        <v>1532.079376374867</v>
+        <v>1387.271938094006</v>
       </c>
       <c r="T5" t="n">
-        <v>1532.079376374867</v>
+        <v>1174.663486810239</v>
       </c>
       <c r="U5" t="n">
-        <v>1278.427721740436</v>
+        <v>1174.663486810239</v>
       </c>
       <c r="V5" t="n">
-        <v>1278.427721740436</v>
+        <v>1174.663486810239</v>
       </c>
       <c r="W5" t="n">
-        <v>925.6590664703222</v>
+        <v>821.8948315401249</v>
       </c>
       <c r="X5" t="n">
-        <v>925.6590664703222</v>
+        <v>821.8948315401249</v>
       </c>
       <c r="Y5" t="n">
-        <v>925.6590664703222</v>
+        <v>821.8948315401249</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>54.07387256324876</v>
+        <v>517.1904547900619</v>
       </c>
       <c r="C6" t="n">
-        <v>54.07387256324876</v>
+        <v>342.737425508935</v>
       </c>
       <c r="D6" t="n">
-        <v>54.07387256324876</v>
+        <v>226.5619136365824</v>
       </c>
       <c r="E6" t="n">
-        <v>54.07387256324876</v>
+        <v>67.32445863112689</v>
       </c>
       <c r="F6" t="n">
-        <v>54.07387256324876</v>
+        <v>67.32445863112689</v>
       </c>
       <c r="G6" t="n">
-        <v>54.07387256324876</v>
+        <v>67.32445863112689</v>
       </c>
       <c r="H6" t="n">
-        <v>30.64158752749734</v>
+        <v>67.32445863112689</v>
       </c>
       <c r="I6" t="n">
-        <v>30.64158752749734</v>
+        <v>30.64158752749725</v>
       </c>
       <c r="J6" t="n">
-        <v>49.27296248835663</v>
+        <v>49.27296248835637</v>
       </c>
       <c r="K6" t="n">
-        <v>387.8643287482199</v>
+        <v>159.2717745831314</v>
       </c>
       <c r="L6" t="n">
-        <v>582.0938474613462</v>
+        <v>448.9177571045018</v>
       </c>
       <c r="M6" t="n">
-        <v>828.1074027572835</v>
+        <v>828.1074027572803</v>
       </c>
       <c r="N6" t="n">
-        <v>1095.040849741471</v>
+        <v>1095.040849741467</v>
       </c>
       <c r="O6" t="n">
-        <v>1317.013008851472</v>
+        <v>1317.013008851468</v>
       </c>
       <c r="P6" t="n">
-        <v>1475.832169705199</v>
+        <v>1475.832169705194</v>
       </c>
       <c r="Q6" t="n">
-        <v>1532.079376374867</v>
+        <v>1532.079376374862</v>
       </c>
       <c r="R6" t="n">
-        <v>1527.597595565092</v>
+        <v>1532.079376374862</v>
       </c>
       <c r="S6" t="n">
-        <v>1383.105979715897</v>
+        <v>1532.079376374862</v>
       </c>
       <c r="T6" t="n">
-        <v>1187.196302353394</v>
+        <v>1336.169699012359</v>
       </c>
       <c r="U6" t="n">
-        <v>959.0751364936799</v>
+        <v>1336.169699012359</v>
       </c>
       <c r="V6" t="n">
-        <v>723.9230282619371</v>
+        <v>1101.017590780617</v>
       </c>
       <c r="W6" t="n">
-        <v>469.6856715337355</v>
+        <v>1101.017590780617</v>
       </c>
       <c r="X6" t="n">
-        <v>261.8341713282027</v>
+        <v>893.1660905750839</v>
       </c>
       <c r="Y6" t="n">
-        <v>54.07387256324876</v>
+        <v>685.40579181013</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>472.9611555594743</v>
+        <v>182.89972893637</v>
       </c>
       <c r="C7" t="n">
-        <v>472.9611555594743</v>
+        <v>182.89972893637</v>
       </c>
       <c r="D7" t="n">
-        <v>472.9611555594743</v>
+        <v>182.89972893637</v>
       </c>
       <c r="E7" t="n">
-        <v>325.0480619770811</v>
+        <v>182.89972893637</v>
       </c>
       <c r="F7" t="n">
-        <v>325.0480619770811</v>
+        <v>182.89972893637</v>
       </c>
       <c r="G7" t="n">
-        <v>184.8982495651355</v>
+        <v>182.89972893637</v>
       </c>
       <c r="H7" t="n">
-        <v>32.64010815626283</v>
+        <v>30.64158752749725</v>
       </c>
       <c r="I7" t="n">
-        <v>32.64010815626283</v>
+        <v>30.64158752749725</v>
       </c>
       <c r="J7" t="n">
-        <v>30.64158752749734</v>
+        <v>30.64158752749725</v>
       </c>
       <c r="K7" t="n">
-        <v>157.2595961747008</v>
+        <v>157.2595961747005</v>
       </c>
       <c r="L7" t="n">
-        <v>374.8134887914629</v>
+        <v>374.8134887914624</v>
       </c>
       <c r="M7" t="n">
-        <v>614.5826883437704</v>
+        <v>614.5826883437696</v>
       </c>
       <c r="N7" t="n">
-        <v>854.0853286630888</v>
+        <v>854.0853286630877</v>
       </c>
       <c r="O7" t="n">
-        <v>1059.288486109135</v>
+        <v>1059.288486109134</v>
       </c>
       <c r="P7" t="n">
-        <v>1211.354555016233</v>
+        <v>1211.354555016231</v>
       </c>
       <c r="Q7" t="n">
-        <v>1233.202138767127</v>
+        <v>1233.202138767125</v>
       </c>
       <c r="R7" t="n">
-        <v>1112.821005058593</v>
+        <v>1112.821005058591</v>
       </c>
       <c r="S7" t="n">
-        <v>909.2941085956008</v>
+        <v>909.294108595599</v>
       </c>
       <c r="T7" t="n">
-        <v>909.2941085956008</v>
+        <v>909.294108595599</v>
       </c>
       <c r="U7" t="n">
-        <v>909.2941085956008</v>
+        <v>620.1541806499129</v>
       </c>
       <c r="V7" t="n">
-        <v>654.609620389714</v>
+        <v>410.8892798343873</v>
       </c>
       <c r="W7" t="n">
-        <v>654.609620389714</v>
+        <v>410.8892798343873</v>
       </c>
       <c r="X7" t="n">
-        <v>654.609620389714</v>
+        <v>182.89972893637</v>
       </c>
       <c r="Y7" t="n">
-        <v>654.609620389714</v>
+        <v>182.89972893637</v>
       </c>
     </row>
     <row r="8">
@@ -4778,22 +4778,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1545.062936918765</v>
+        <v>1599.080600298115</v>
       </c>
       <c r="C8" t="n">
-        <v>1545.062936918765</v>
+        <v>1230.118083357703</v>
       </c>
       <c r="D8" t="n">
-        <v>1330.099343395678</v>
+        <v>1230.118083357703</v>
       </c>
       <c r="E8" t="n">
-        <v>944.3110907974333</v>
+        <v>844.329830759459</v>
       </c>
       <c r="F8" t="n">
-        <v>533.3251860078258</v>
+        <v>837.3843300102556</v>
       </c>
       <c r="G8" t="n">
-        <v>117.6204357321147</v>
+        <v>421.6795797345444</v>
       </c>
       <c r="H8" t="n">
         <v>117.6204357321147</v>
@@ -4802,16 +4802,16 @@
         <v>51.2467865680031</v>
       </c>
       <c r="J8" t="n">
-        <v>187.5281822362811</v>
+        <v>187.5281822362819</v>
       </c>
       <c r="K8" t="n">
-        <v>442.5171852816076</v>
+        <v>442.5171852816084</v>
       </c>
       <c r="L8" t="n">
-        <v>795.755353087291</v>
+        <v>795.7553530872915</v>
       </c>
       <c r="M8" t="n">
-        <v>1220.470313923561</v>
+        <v>1220.470313923562</v>
       </c>
       <c r="N8" t="n">
         <v>1656.671415230817</v>
@@ -4835,19 +4835,19 @@
         <v>2228.89447953245</v>
       </c>
       <c r="U8" t="n">
-        <v>2228.89447953245</v>
+        <v>1975.31341879663</v>
       </c>
       <c r="V8" t="n">
-        <v>1897.831592188879</v>
+        <v>1975.31341879663</v>
       </c>
       <c r="W8" t="n">
-        <v>1545.062936918765</v>
+        <v>1975.31341879663</v>
       </c>
       <c r="X8" t="n">
-        <v>1545.062936918765</v>
+        <v>1601.84766053555</v>
       </c>
       <c r="Y8" t="n">
-        <v>1545.062936918765</v>
+        <v>1599.080600298115</v>
       </c>
     </row>
     <row r="9">
@@ -4857,22 +4857,22 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>931.3041410966384</v>
+        <v>931.3041410966389</v>
       </c>
       <c r="C9" t="n">
-        <v>756.8511118155114</v>
+        <v>756.8511118155119</v>
       </c>
       <c r="D9" t="n">
-        <v>607.9167021542601</v>
+        <v>607.9167021542605</v>
       </c>
       <c r="E9" t="n">
-        <v>448.6792471488045</v>
+        <v>448.679247148805</v>
       </c>
       <c r="F9" t="n">
-        <v>302.1446891756896</v>
+        <v>302.14468917569</v>
       </c>
       <c r="G9" t="n">
-        <v>165.4432786182518</v>
+        <v>165.443278618252</v>
       </c>
       <c r="H9" t="n">
         <v>71.67401812057899</v>
@@ -4884,25 +4884,25 @@
         <v>238.4273302370161</v>
       </c>
       <c r="K9" t="n">
-        <v>575.6256845144198</v>
+        <v>423.1489515180662</v>
       </c>
       <c r="L9" t="n">
-        <v>870.3292415458916</v>
+        <v>884.908532145821</v>
       </c>
       <c r="M9" t="n">
-        <v>1233.591260505112</v>
+        <v>1248.170551105041</v>
       </c>
       <c r="N9" t="n">
-        <v>1867.77024428415</v>
+        <v>1635.455679701986</v>
       </c>
       <c r="O9" t="n">
-        <v>2199.840679460312</v>
+        <v>1967.526114878148</v>
       </c>
       <c r="P9" t="n">
-        <v>2447.023413292609</v>
+        <v>2214.708848710445</v>
       </c>
       <c r="Q9" t="n">
-        <v>2562.339328400155</v>
+        <v>2538.001278676482</v>
       </c>
       <c r="R9" t="n">
         <v>2562.339328400155</v>
@@ -4914,16 +4914,16 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U9" t="n">
-        <v>2004.520742047137</v>
+        <v>2004.520742047138</v>
       </c>
       <c r="V9" t="n">
         <v>1769.368633815395</v>
       </c>
       <c r="W9" t="n">
-        <v>1515.131277087193</v>
+        <v>1515.131277087194</v>
       </c>
       <c r="X9" t="n">
-        <v>1307.27977688166</v>
+        <v>1307.279776881661</v>
       </c>
       <c r="Y9" t="n">
         <v>1099.519478116707</v>
@@ -4936,13 +4936,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>370.2996089082458</v>
+        <v>199.1598801503962</v>
       </c>
       <c r="C10" t="n">
-        <v>201.3634259803388</v>
+        <v>199.1598801503962</v>
       </c>
       <c r="D10" t="n">
-        <v>51.2467865680031</v>
+        <v>199.1598801503962</v>
       </c>
       <c r="E10" t="n">
         <v>51.2467865680031</v>
@@ -4984,28 +4984,28 @@
         <v>1636.446120074497</v>
       </c>
       <c r="R10" t="n">
-        <v>1636.446120074497</v>
+        <v>1533.86271359008</v>
       </c>
       <c r="S10" t="n">
-        <v>1636.446120074497</v>
+        <v>1533.86271359008</v>
       </c>
       <c r="T10" t="n">
-        <v>1636.446120074497</v>
+        <v>1373.393300724232</v>
       </c>
       <c r="U10" t="n">
-        <v>1544.831862022881</v>
+        <v>1084.27496322807</v>
       </c>
       <c r="V10" t="n">
-        <v>1290.147373816994</v>
+        <v>829.5904750221833</v>
       </c>
       <c r="W10" t="n">
-        <v>1000.730203780033</v>
+        <v>829.5904750221833</v>
       </c>
       <c r="X10" t="n">
-        <v>772.7406528820156</v>
+        <v>601.600924124166</v>
       </c>
       <c r="Y10" t="n">
-        <v>551.9480737384855</v>
+        <v>380.8083449806359</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1838.026121952502</v>
+        <v>1563.167068012547</v>
       </c>
       <c r="C11" t="n">
-        <v>1469.06360501209</v>
+        <v>1194.204551072135</v>
       </c>
       <c r="D11" t="n">
-        <v>1110.79790640534</v>
+        <v>1194.204551072135</v>
       </c>
       <c r="E11" t="n">
-        <v>926.9085500506931</v>
+        <v>808.4162984738909</v>
       </c>
       <c r="F11" t="n">
-        <v>515.9226452610856</v>
+        <v>808.4162984738909</v>
       </c>
       <c r="G11" t="n">
-        <v>101.3471995907325</v>
+        <v>393.8408528035379</v>
       </c>
       <c r="H11" t="n">
-        <v>101.3471995907325</v>
+        <v>101.3471995907326</v>
       </c>
       <c r="I11" t="n">
-        <v>78.51106622469183</v>
+        <v>78.51106622469182</v>
       </c>
       <c r="J11" t="n">
         <v>308.7333971386834</v>
       </c>
       <c r="K11" t="n">
-        <v>704.5155104420321</v>
+        <v>704.5155104420314</v>
       </c>
       <c r="L11" t="n">
-        <v>1232.419981301225</v>
+        <v>1232.419981301224</v>
       </c>
       <c r="M11" t="n">
-        <v>1851.48485887811</v>
+        <v>1851.484858878109</v>
       </c>
       <c r="N11" t="n">
-        <v>2485.180661765425</v>
+        <v>2485.180661765424</v>
       </c>
       <c r="O11" t="n">
-        <v>3070.226377687101</v>
+        <v>3070.2263776871</v>
       </c>
       <c r="P11" t="n">
-        <v>3535.048359856283</v>
+        <v>3535.048359856282</v>
       </c>
       <c r="Q11" t="n">
-        <v>3835.937563882241</v>
+        <v>3835.93756388224</v>
       </c>
       <c r="R11" t="n">
-        <v>3925.553311234592</v>
+        <v>3925.553311234591</v>
       </c>
       <c r="S11" t="n">
-        <v>3925.553311234592</v>
+        <v>3826.58813245566</v>
       </c>
       <c r="T11" t="n">
-        <v>3925.553311234592</v>
+        <v>3622.78602197144</v>
       </c>
       <c r="U11" t="n">
-        <v>3672.0625948672</v>
+        <v>3369.295305604049</v>
       </c>
       <c r="V11" t="n">
-        <v>3340.999707523629</v>
+        <v>3038.232418260478</v>
       </c>
       <c r="W11" t="n">
-        <v>2988.231052253515</v>
+        <v>2685.463762990364</v>
       </c>
       <c r="X11" t="n">
-        <v>2614.765293992436</v>
+        <v>2311.998004729284</v>
       </c>
       <c r="Y11" t="n">
-        <v>2224.625962016624</v>
+        <v>1949.766908076669</v>
       </c>
     </row>
     <row r="12">
@@ -5115,31 +5115,31 @@
         <v>88.36274985503046</v>
       </c>
       <c r="I12" t="n">
-        <v>78.51106622469183</v>
+        <v>78.51106622469182</v>
       </c>
       <c r="J12" t="n">
-        <v>196.8120623792129</v>
+        <v>196.8120623792128</v>
       </c>
       <c r="K12" t="n">
-        <v>477.1621322376503</v>
+        <v>477.1621322376501</v>
       </c>
       <c r="L12" t="n">
-        <v>900.4499396649599</v>
+        <v>900.4499396649596</v>
       </c>
       <c r="M12" t="n">
         <v>1413.763713908849</v>
       </c>
       <c r="N12" t="n">
-        <v>1955.072021259916</v>
+        <v>1518.698809735874</v>
       </c>
       <c r="O12" t="n">
-        <v>2428.043574125665</v>
+        <v>1991.670362601623</v>
       </c>
       <c r="P12" t="n">
-        <v>2428.043574125665</v>
+        <v>2351.938665441777</v>
       </c>
       <c r="Q12" t="n">
-        <v>2558.889669173201</v>
+        <v>2542.849288629729</v>
       </c>
       <c r="R12" t="n">
         <v>2558.889669173201</v>
@@ -5173,28 +5173,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>968.4543104614077</v>
+        <v>203.8650582458548</v>
       </c>
       <c r="C13" t="n">
-        <v>925.7669901098875</v>
+        <v>78.51106622469182</v>
       </c>
       <c r="D13" t="n">
-        <v>775.6503506975517</v>
+        <v>78.51106622469182</v>
       </c>
       <c r="E13" t="n">
-        <v>627.7372571151586</v>
+        <v>78.51106622469182</v>
       </c>
       <c r="F13" t="n">
-        <v>480.8473096172482</v>
+        <v>78.51106622469182</v>
       </c>
       <c r="G13" t="n">
-        <v>313.367412093791</v>
+        <v>78.51106622469182</v>
       </c>
       <c r="H13" t="n">
-        <v>169.132356598773</v>
+        <v>78.51106622469182</v>
       </c>
       <c r="I13" t="n">
-        <v>78.51106622469183</v>
+        <v>78.51106622469182</v>
       </c>
       <c r="J13" t="n">
         <v>139.0818334600399</v>
@@ -5203,7 +5203,7 @@
         <v>368.4550473457703</v>
       </c>
       <c r="L13" t="n">
-        <v>717.5002252888916</v>
+        <v>717.5002252888914</v>
       </c>
       <c r="M13" t="n">
         <v>1095.908548779221</v>
@@ -5212,7 +5212,7 @@
         <v>1470.753784542993</v>
       </c>
       <c r="O13" t="n">
-        <v>1800.967734715849</v>
+        <v>1800.967734715848</v>
       </c>
       <c r="P13" t="n">
         <v>2060.002133082521</v>
@@ -5224,25 +5224,25 @@
         <v>2076.102739014273</v>
       </c>
       <c r="S13" t="n">
-        <v>1888.302075370156</v>
+        <v>1888.302075370155</v>
       </c>
       <c r="T13" t="n">
-        <v>1888.302075370156</v>
+        <v>1667.488017920201</v>
       </c>
       <c r="U13" t="n">
-        <v>1888.302075370156</v>
+        <v>1378.39731136049</v>
       </c>
       <c r="V13" t="n">
-        <v>1888.302075370156</v>
+        <v>1123.712823154603</v>
       </c>
       <c r="W13" t="n">
-        <v>1598.884905333195</v>
+        <v>834.2956531176419</v>
       </c>
       <c r="X13" t="n">
-        <v>1370.895354435178</v>
+        <v>606.3061022196246</v>
       </c>
       <c r="Y13" t="n">
-        <v>1150.102775291647</v>
+        <v>385.5135230760944</v>
       </c>
     </row>
     <row r="14">
@@ -5252,37 +5252,37 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.224468905843</v>
+        <v>2266.424947555046</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.261951965432</v>
+        <v>1897.462430614635</v>
       </c>
       <c r="D14" t="n">
-        <v>1589.996253358682</v>
+        <v>1539.196732007884</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.208000760438</v>
+        <v>1153.40847940964</v>
       </c>
       <c r="F14" t="n">
-        <v>793.22209597083</v>
+        <v>742.4225746200325</v>
       </c>
       <c r="G14" t="n">
         <v>379.2389888872364</v>
       </c>
       <c r="H14" t="n">
-        <v>92.81162322608053</v>
+        <v>92.81162322608056</v>
       </c>
       <c r="I14" t="n">
-        <v>92.81162322608053</v>
+        <v>92.81162322608057</v>
       </c>
       <c r="J14" t="n">
-        <v>372.3074987251939</v>
+        <v>372.3074987251948</v>
       </c>
       <c r="K14" t="n">
-        <v>841.937882512877</v>
+        <v>841.9378825128761</v>
       </c>
       <c r="L14" t="n">
-        <v>1461.457663018652</v>
+        <v>1461.457663018651</v>
       </c>
       <c r="M14" t="n">
         <v>2182.462224957689</v>
@@ -5297,31 +5297,31 @@
         <v>4150.915188021281</v>
       </c>
       <c r="Q14" t="n">
-        <v>4514.497374127288</v>
+        <v>4514.49737412729</v>
       </c>
       <c r="R14" t="n">
-        <v>4640.581161304026</v>
+        <v>4640.581161304028</v>
       </c>
       <c r="S14" t="n">
-        <v>4555.113898070875</v>
+        <v>4555.113898070877</v>
       </c>
       <c r="T14" t="n">
-        <v>4353.904749750193</v>
+        <v>4353.904749750195</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.260941820542</v>
+        <v>4100.461420469745</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.198054476971</v>
+        <v>3769.398533126174</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.429399206857</v>
+        <v>3416.629877856059</v>
       </c>
       <c r="X14" t="n">
-        <v>3093.963640945777</v>
+        <v>3043.16411959498</v>
       </c>
       <c r="Y14" t="n">
-        <v>2703.824308969965</v>
+        <v>2653.024787619168</v>
       </c>
     </row>
     <row r="15">
@@ -5343,40 +5343,40 @@
         <v>459.9992225560484</v>
       </c>
       <c r="F15" t="n">
-        <v>313.4646645829333</v>
+        <v>313.4646645829334</v>
       </c>
       <c r="G15" t="n">
         <v>177.6844143428629</v>
       </c>
       <c r="H15" t="n">
-        <v>92.81162322608053</v>
+        <v>92.81162322608056</v>
       </c>
       <c r="I15" t="n">
-        <v>93.85065580060311</v>
+        <v>93.85065580060315</v>
       </c>
       <c r="J15" t="n">
-        <v>241.498637552449</v>
+        <v>241.4986375524491</v>
       </c>
       <c r="K15" t="n">
-        <v>572.0073801158078</v>
+        <v>572.0073801158079</v>
       </c>
       <c r="L15" t="n">
-        <v>572.0073801158078</v>
+        <v>1062.739712959559</v>
       </c>
       <c r="M15" t="n">
-        <v>964.2196729446337</v>
+        <v>1654.758067211687</v>
       </c>
       <c r="N15" t="n">
-        <v>1586.31563634397</v>
+        <v>1654.758067211687</v>
       </c>
       <c r="O15" t="n">
-        <v>2133.192111344164</v>
+        <v>1867.304633125007</v>
       </c>
       <c r="P15" t="n">
-        <v>2552.77562977024</v>
+        <v>2286.888151551083</v>
       </c>
       <c r="Q15" t="n">
-        <v>2552.77562977024</v>
+        <v>2517.44942553633</v>
       </c>
       <c r="R15" t="n">
         <v>2552.77562977024</v>
@@ -5410,43 +5410,43 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1098.385284034031</v>
+        <v>494.0589900220737</v>
       </c>
       <c r="C16" t="n">
-        <v>929.4491011061236</v>
+        <v>325.1228070941668</v>
       </c>
       <c r="D16" t="n">
-        <v>779.3324616937879</v>
+        <v>175.0061676818311</v>
       </c>
       <c r="E16" t="n">
-        <v>631.4193681113948</v>
+        <v>175.0061676818311</v>
       </c>
       <c r="F16" t="n">
-        <v>484.5294206134844</v>
+        <v>175.0061676818311</v>
       </c>
       <c r="G16" t="n">
-        <v>317.3152257880633</v>
+        <v>92.81162322608056</v>
       </c>
       <c r="H16" t="n">
-        <v>175.4425088264937</v>
+        <v>92.81162322608056</v>
       </c>
       <c r="I16" t="n">
-        <v>92.81162322608053</v>
+        <v>92.81162322608056</v>
       </c>
       <c r="J16" t="n">
-        <v>171.7937461156344</v>
+        <v>171.7937461156345</v>
       </c>
       <c r="K16" t="n">
-        <v>431.4224730861981</v>
+        <v>431.4224730861982</v>
       </c>
       <c r="L16" t="n">
-        <v>819.1842911693323</v>
+        <v>819.1842911693325</v>
       </c>
       <c r="M16" t="n">
-        <v>1238.413883213791</v>
+        <v>1238.413883213792</v>
       </c>
       <c r="N16" t="n">
-        <v>1653.109749005498</v>
+        <v>1653.109749005499</v>
       </c>
       <c r="O16" t="n">
         <v>2020.132206020528</v>
@@ -5464,22 +5464,22 @@
         <v>2177.3462391076</v>
       </c>
       <c r="T16" t="n">
-        <v>2177.3462391076</v>
+        <v>1957.667456821982</v>
       </c>
       <c r="U16" t="n">
-        <v>2177.3462391076</v>
+        <v>1668.591243136708</v>
       </c>
       <c r="V16" t="n">
-        <v>1922.661750901713</v>
+        <v>1413.906754930822</v>
       </c>
       <c r="W16" t="n">
-        <v>1728.815878905818</v>
+        <v>1124.489584893861</v>
       </c>
       <c r="X16" t="n">
-        <v>1500.8263280078</v>
+        <v>896.5000339958435</v>
       </c>
       <c r="Y16" t="n">
-        <v>1280.03374886427</v>
+        <v>675.7074548523134</v>
       </c>
     </row>
     <row r="17">
@@ -5507,7 +5507,7 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
         <v>95.34095638192599</v>
@@ -5522,16 +5522,16 @@
         <v>1478.611553332388</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
         <v>4562.265728852255</v>
@@ -5589,31 +5589,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797187</v>
+        <v>139.234765840794</v>
       </c>
       <c r="K18" t="n">
-        <v>93.81666304797187</v>
+        <v>139.234765840794</v>
       </c>
       <c r="L18" t="n">
-        <v>352.5519571452614</v>
+        <v>634.5603720565526</v>
       </c>
       <c r="M18" t="n">
-        <v>949.9304447718133</v>
+        <v>1231.938859683105</v>
       </c>
       <c r="N18" t="n">
-        <v>1577.52840832642</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O18" t="n">
-        <v>2129.438138565707</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P18" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q18" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,25 +5647,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>789.7592298206039</v>
+        <v>513.853600740071</v>
       </c>
       <c r="C19" t="n">
-        <v>620.823046892697</v>
+        <v>344.9174178121641</v>
       </c>
       <c r="D19" t="n">
-        <v>470.7064074803613</v>
+        <v>194.8007783998282</v>
       </c>
       <c r="E19" t="n">
-        <v>322.7933138979683</v>
+        <v>194.8007783998282</v>
       </c>
       <c r="F19" t="n">
-        <v>175.9033664000581</v>
+        <v>194.8007783998283</v>
       </c>
       <c r="G19" t="n">
-        <v>175.9033664000581</v>
+        <v>194.8007783998283</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000581</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
@@ -5674,10 +5674,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038341</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797745</v>
+        <v>826.140538179774</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
@@ -5692,31 +5692,31 @@
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S19" t="n">
-        <v>2446.963083580261</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>2253.366709591041</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1964.291482935239</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1709.606994729352</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1420.189824692391</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>1192.200273794374</v>
+        <v>916.2946447138409</v>
       </c>
       <c r="Y19" t="n">
-        <v>971.4076946508436</v>
+        <v>695.5020655703107</v>
       </c>
     </row>
     <row r="20">
@@ -5753,25 +5753,25 @@
         <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P20" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R20" t="n">
         <v>4690.833152398593</v>
@@ -5783,10 +5783,10 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466571</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W20" t="n">
         <v>3467.980956852888</v>
@@ -5826,31 +5826,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K21" t="n">
-        <v>280.8495004245706</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L21" t="n">
-        <v>776.1751066403293</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="M21" t="n">
-        <v>1373.553594266881</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N21" t="n">
-        <v>2001.151557821488</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O21" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P21" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q21" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,22 +5884,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1016.580456911439</v>
+        <v>513.8536007400653</v>
       </c>
       <c r="C22" t="n">
-        <v>847.6442739835322</v>
+        <v>344.9174178121584</v>
       </c>
       <c r="D22" t="n">
-        <v>697.5276345711966</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="E22" t="n">
-        <v>549.6145409888036</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F22" t="n">
-        <v>402.7245934908934</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G22" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H22" t="n">
         <v>93.81666304797187</v>
@@ -5911,10 +5911,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038341</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L22" t="n">
-        <v>826.140538179774</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
@@ -5932,28 +5932,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832662</v>
+        <v>2379.917379832657</v>
       </c>
       <c r="S22" t="n">
-        <v>2297.348357685165</v>
+        <v>2197.062545487562</v>
       </c>
       <c r="T22" t="n">
-        <v>2077.746892708106</v>
+        <v>1977.461080510503</v>
       </c>
       <c r="U22" t="n">
-        <v>1788.671666052304</v>
+        <v>1688.3858538547</v>
       </c>
       <c r="V22" t="n">
-        <v>1533.987177846417</v>
+        <v>1433.701365648813</v>
       </c>
       <c r="W22" t="n">
-        <v>1244.570007809456</v>
+        <v>1144.284195611853</v>
       </c>
       <c r="X22" t="n">
-        <v>1016.580456911439</v>
+        <v>916.2946447138352</v>
       </c>
       <c r="Y22" t="n">
-        <v>1016.580456911439</v>
+        <v>695.502065570305</v>
       </c>
     </row>
     <row r="23">
@@ -5963,22 +5963,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
         <v>93.81666304797187</v>
@@ -5987,10 +5987,10 @@
         <v>95.34095638192595</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
@@ -6020,19 +6020,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y23" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="24">
@@ -6066,28 +6066,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K24" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L24" t="n">
-        <v>119.290296770379</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="M24" t="n">
-        <v>716.6687843969308</v>
+        <v>1174.766565373399</v>
       </c>
       <c r="N24" t="n">
-        <v>1344.266747951538</v>
+        <v>1802.364528928006</v>
       </c>
       <c r="O24" t="n">
-        <v>1896.176478190825</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P24" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q24" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,25 +6121,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>985.7836617409691</v>
+        <v>727.9786782557276</v>
       </c>
       <c r="C25" t="n">
-        <v>816.8474788130623</v>
+        <v>559.0424953278208</v>
       </c>
       <c r="D25" t="n">
-        <v>666.7308394007264</v>
+        <v>408.925855915485</v>
       </c>
       <c r="E25" t="n">
-        <v>518.8177458183334</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F25" t="n">
-        <v>371.9277983204231</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G25" t="n">
-        <v>204.7316990353031</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
@@ -6151,7 +6151,7 @@
         <v>435.7419440038341</v>
       </c>
       <c r="L25" t="n">
-        <v>826.140538179774</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
@@ -6172,25 +6172,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2160.315914855604</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>2160.315914855604</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V25" t="n">
-        <v>1905.631426649717</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W25" t="n">
-        <v>1616.214256612756</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X25" t="n">
-        <v>1388.224705714739</v>
+        <v>1130.419722229497</v>
       </c>
       <c r="Y25" t="n">
-        <v>1167.432126571209</v>
+        <v>909.6271430859673</v>
       </c>
     </row>
     <row r="26">
@@ -6200,43 +6200,43 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O26" t="n">
         <v>3640.42229106801</v>
@@ -6257,19 +6257,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="27">
@@ -6300,31 +6300,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K27" t="n">
-        <v>579.1554649516142</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L27" t="n">
-        <v>1074.481071167373</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M27" t="n">
-        <v>1671.859558793925</v>
+        <v>1231.938859683105</v>
       </c>
       <c r="N27" t="n">
-        <v>2299.457522348532</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O27" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P27" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q27" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,22 +6358,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>513.8536007400708</v>
+        <v>513.853600740071</v>
       </c>
       <c r="C28" t="n">
-        <v>344.9174178121639</v>
+        <v>344.9174178121641</v>
       </c>
       <c r="D28" t="n">
-        <v>344.9174178121639</v>
+        <v>194.8007783998282</v>
       </c>
       <c r="E28" t="n">
-        <v>344.9174178121639</v>
+        <v>194.8007783998282</v>
       </c>
       <c r="F28" t="n">
-        <v>344.9174178121639</v>
+        <v>194.8007783998283</v>
       </c>
       <c r="G28" t="n">
-        <v>177.7213185270443</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H28" t="n">
         <v>93.81666304797187</v>
@@ -6385,10 +6385,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038341</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L28" t="n">
-        <v>826.140538179774</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
@@ -6400,7 +6400,7 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q28" t="n">
         <v>2446.96308358026</v>
@@ -6424,10 +6424,10 @@
         <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>916.2946447138406</v>
+        <v>916.2946447138409</v>
       </c>
       <c r="Y28" t="n">
-        <v>695.5020655703105</v>
+        <v>695.5020655703107</v>
       </c>
     </row>
     <row r="29">
@@ -6476,7 +6476,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
@@ -6540,13 +6540,13 @@
         <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>95.58405025273903</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>95.58405025273903</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>95.58405025273903</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="M30" t="n">
         <v>680.0291294438176</v>
@@ -6595,22 +6595,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>513.8536007400712</v>
+        <v>513.8536007400714</v>
       </c>
       <c r="C31" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121646</v>
       </c>
       <c r="D31" t="n">
-        <v>344.9174178121643</v>
+        <v>194.8007783998287</v>
       </c>
       <c r="E31" t="n">
-        <v>344.9174178121643</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F31" t="n">
-        <v>344.9174178121644</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G31" t="n">
-        <v>177.7213185270448</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H31" t="n">
         <v>93.81666304797187</v>
@@ -6631,7 +6631,7 @@
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
         <v>2035.089393279802</v>
@@ -6658,13 +6658,13 @@
         <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X31" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138413</v>
       </c>
       <c r="Y31" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703112</v>
       </c>
     </row>
     <row r="32">
@@ -6689,7 +6689,7 @@
         <v>793.7736536168613</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H32" t="n">
         <v>93.81666304797187</v>
@@ -6713,7 +6713,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
@@ -6774,31 +6774,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K33" t="n">
-        <v>579.1554649516142</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L33" t="n">
-        <v>1074.481071167373</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="M33" t="n">
-        <v>1671.859558793925</v>
+        <v>691.1951506745238</v>
       </c>
       <c r="N33" t="n">
-        <v>2299.457522348532</v>
+        <v>1318.79311422913</v>
       </c>
       <c r="O33" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P33" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q33" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,22 +6832,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>571.6607764188002</v>
+        <v>513.8536007400714</v>
       </c>
       <c r="C34" t="n">
-        <v>402.7245934908933</v>
+        <v>344.9174178121646</v>
       </c>
       <c r="D34" t="n">
-        <v>402.7245934908933</v>
+        <v>194.8007783998287</v>
       </c>
       <c r="E34" t="n">
-        <v>402.7245934908933</v>
+        <v>194.8007783998287</v>
       </c>
       <c r="F34" t="n">
-        <v>402.7245934908934</v>
+        <v>194.8007783998287</v>
       </c>
       <c r="G34" t="n">
-        <v>235.5284942057738</v>
+        <v>194.8007783998287</v>
       </c>
       <c r="H34" t="n">
         <v>93.81666304797187</v>
@@ -6859,10 +6859,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797742</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
@@ -6874,34 +6874,34 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2254.869721166296</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>2035.268256189237</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1746.193029533435</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1491.508541327548</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1202.091371290587</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X34" t="n">
-        <v>974.1018203925701</v>
+        <v>916.2946447138413</v>
       </c>
       <c r="Y34" t="n">
-        <v>753.3092412490399</v>
+        <v>695.5020655703112</v>
       </c>
     </row>
     <row r="35">
@@ -6911,13 +6911,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E35" t="n">
         <v>1204.759558406469</v>
@@ -6929,7 +6929,7 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
         <v>95.34095638192616</v>
@@ -6944,10 +6944,10 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
         <v>3640.42229106801</v>
@@ -6956,31 +6956,31 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R35" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="36">
@@ -7008,28 +7008,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K36" t="n">
-        <v>93.81666304797186</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L36" t="n">
-        <v>119.290296770379</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="M36" t="n">
-        <v>716.6687843969308</v>
+        <v>1522.21291626627</v>
       </c>
       <c r="N36" t="n">
-        <v>1344.266747951538</v>
+        <v>1522.21291626627</v>
       </c>
       <c r="O36" t="n">
-        <v>1896.176478190825</v>
+        <v>2074.122646505557</v>
       </c>
       <c r="P36" t="n">
         <v>2319.799627685893</v>
@@ -7069,37 +7069,37 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>707.6725264685176</v>
+        <v>513.8536007400708</v>
       </c>
       <c r="C37" t="n">
-        <v>538.7363435406107</v>
+        <v>344.9174178121639</v>
       </c>
       <c r="D37" t="n">
-        <v>388.6197041282751</v>
+        <v>344.9174178121639</v>
       </c>
       <c r="E37" t="n">
-        <v>240.7066105458821</v>
+        <v>344.9174178121639</v>
       </c>
       <c r="F37" t="n">
-        <v>93.81666304797186</v>
+        <v>198.0274703142537</v>
       </c>
       <c r="G37" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
@@ -7114,31 +7114,31 @@
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S37" t="n">
-        <v>2390.881471216013</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>2171.280006238955</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>1882.204779583152</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1627.520291377265</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1338.103121340305</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>1110.113570442287</v>
+        <v>916.2946447138406</v>
       </c>
       <c r="Y37" t="n">
-        <v>889.3209912987573</v>
+        <v>695.5020655703105</v>
       </c>
     </row>
     <row r="38">
@@ -7148,76 +7148,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R38" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T38" t="n">
         <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="39">
@@ -7245,31 +7245,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273902</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
-        <v>119.290296770379</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K39" t="n">
-        <v>119.290296770379</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L39" t="n">
-        <v>119.290296770379</v>
+        <v>589.1422692637306</v>
       </c>
       <c r="M39" t="n">
-        <v>716.6687843969308</v>
+        <v>1186.520756890282</v>
       </c>
       <c r="N39" t="n">
-        <v>1344.266747951538</v>
+        <v>1814.118720444889</v>
       </c>
       <c r="O39" t="n">
-        <v>1896.176478190825</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P39" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
         <v>2553.061288060775</v>
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>580.899304487669</v>
+        <v>513.8536007400714</v>
       </c>
       <c r="C40" t="n">
-        <v>580.899304487669</v>
+        <v>344.9174178121646</v>
       </c>
       <c r="D40" t="n">
-        <v>430.7826650753334</v>
+        <v>194.8007783998287</v>
       </c>
       <c r="E40" t="n">
-        <v>407.9027098310023</v>
+        <v>194.8007783998287</v>
       </c>
       <c r="F40" t="n">
-        <v>261.0127623330919</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G40" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782952</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038336</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797736</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M40" t="n">
-        <v>1248.150240910808</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
         <v>1665.560112570817</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P40" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2264.108249235164</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U40" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X40" t="n">
-        <v>983.3403484614389</v>
+        <v>916.2946447138413</v>
       </c>
       <c r="Y40" t="n">
-        <v>762.5477693179088</v>
+        <v>695.5020655703112</v>
       </c>
     </row>
     <row r="41">
@@ -7397,19 +7397,19 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
         <v>852.8523611075807</v>
@@ -7424,7 +7424,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7491,25 +7491,25 @@
         <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>579.1554649516142</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L42" t="n">
-        <v>1074.481071167373</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="M42" t="n">
-        <v>1671.859558793925</v>
+        <v>842.6091804069456</v>
       </c>
       <c r="N42" t="n">
-        <v>2001.151557821488</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O42" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P42" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q42" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,22 +7543,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>580.8993044876686</v>
+        <v>513.8536007400701</v>
       </c>
       <c r="C43" t="n">
-        <v>411.9631215597617</v>
+        <v>344.9174178121632</v>
       </c>
       <c r="D43" t="n">
-        <v>411.9631215597617</v>
+        <v>194.8007783998273</v>
       </c>
       <c r="E43" t="n">
-        <v>264.0500279773687</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F43" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G43" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H43" t="n">
         <v>93.81666304797187</v>
@@ -7570,49 +7570,49 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038325</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797742</v>
+        <v>826.1405381797726</v>
       </c>
       <c r="M43" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.150240910807</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570816</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279801</v>
       </c>
       <c r="P43" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853359</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580259</v>
       </c>
       <c r="R43" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832661</v>
       </c>
       <c r="S43" t="n">
-        <v>2264.108249235164</v>
+        <v>2197.062545487565</v>
       </c>
       <c r="T43" t="n">
-        <v>2044.506784258105</v>
+        <v>1977.461080510506</v>
       </c>
       <c r="U43" t="n">
-        <v>1755.431557602303</v>
+        <v>1688.385853854705</v>
       </c>
       <c r="V43" t="n">
-        <v>1500.747069396416</v>
+        <v>1433.701365648818</v>
       </c>
       <c r="W43" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611857</v>
       </c>
       <c r="X43" t="n">
-        <v>983.3403484614385</v>
+        <v>916.2946447138399</v>
       </c>
       <c r="Y43" t="n">
-        <v>762.5477693179083</v>
+        <v>695.5020655703098</v>
       </c>
     </row>
     <row r="44">
@@ -7652,19 +7652,19 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q44" t="n">
         <v>4562.265728852255</v>
@@ -7734,19 +7734,19 @@
         <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>1671.859558793925</v>
+        <v>1655.562009178173</v>
       </c>
       <c r="N45" t="n">
-        <v>2299.457522348532</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="O45" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P45" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q45" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,25 +7780,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>653.7474797708871</v>
+        <v>513.8536007400714</v>
       </c>
       <c r="C46" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121646</v>
       </c>
       <c r="D46" t="n">
-        <v>484.8112968429803</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="E46" t="n">
-        <v>484.8112968429803</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F46" t="n">
-        <v>484.8112968429803</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G46" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H46" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
@@ -7834,22 +7834,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>2117.354959541324</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1828.279732885522</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1573.595244679635</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1284.178074642674</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X46" t="n">
-        <v>1056.188523744657</v>
+        <v>916.2946447138413</v>
       </c>
       <c r="Y46" t="n">
-        <v>835.3959446011269</v>
+        <v>695.5020655703112</v>
       </c>
     </row>
   </sheetData>
@@ -8000,7 +8000,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>60.51967546761156</v>
+        <v>60.51967546761151</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8055,7 +8055,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>99.37288961069115</v>
+        <v>28.18495819153195</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -8064,7 +8064,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>71.18793141915893</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -8237,7 +8237,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>34.5845809875276</v>
+        <v>34.58458098752783</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8295,13 +8295,13 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>230.9015698637252</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>96.38026647297431</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>134.521303390749</v>
       </c>
       <c r="N6" t="n">
         <v>0</v>
@@ -8532,16 +8532,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>154.0169020165189</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>168.7434581780637</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>249.3877325071647</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
         <v>0</v>
@@ -8550,10 +8550,10 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
-        <v>20.93778120154988</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -9635,7 +9635,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-13</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -9644,7 +9644,7 @@
         <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
         <v>0</v>
@@ -9887,7 +9887,7 @@
         <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="P26" t="n">
         <v>0</v>
@@ -10121,7 +10121,7 @@
         <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>0</v>
+        <v>3.410605131648481e-13</v>
       </c>
       <c r="O29" t="n">
         <v>0</v>
@@ -10133,7 +10133,7 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>4.263256414560601e-13</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10361,10 +10361,10 @@
         <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="Q32" t="n">
         <v>0</v>
@@ -10841,7 +10841,7 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-13</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
@@ -11081,7 +11081,7 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>4.263256414560601e-13</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -23261,19 +23261,19 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>199.8799072811616</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>289.5687166806773</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23306,10 +23306,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>97.97552699114102</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>201.7640893793779</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -23324,7 +23324,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>27.62915296996425</v>
       </c>
     </row>
     <row r="12">
@@ -23416,25 +23416,25 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>124.9863739506229</v>
+        <v>43.14636899767659</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.8050985482227</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>142.7927049400678</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>89.7150774703404</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23467,13 +23467,13 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>218.6059168754546</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.1997994941144</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23507,7 +23507,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>50.29152613728957</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -23549,7 +23549,7 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>50.2915261372913</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -23659,19 +23659,19 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>84.16945386597352</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.4539897919539</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.80457674440902</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23704,16 +23704,16 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4819944627618</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.1854515484204</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>94.61558506065509</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23896,19 +23896,19 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>40.32043864788563</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,13 +23935,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>25.74504007796074</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -24124,25 +24124,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>65.54986409393634</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
         <v>81.26583631856553</v>
@@ -24175,7 +24175,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>99.28295407562227</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24193,7 +24193,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24373,16 +24373,16 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>111.7546635373315</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24412,13 +24412,13 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24427,7 +24427,7 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>211.9838267404996</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24604,7 +24604,7 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
@@ -24613,10 +24613,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>65.5498640939301</v>
       </c>
       <c r="H28" t="n">
-        <v>57.22910392194214</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
         <v>81.26583631856553</v>
@@ -24841,19 +24841,19 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>46.45968844823088</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>57.22910392194166</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
         <v>81.26583631856553</v>
@@ -25078,7 +25078,7 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
@@ -25087,10 +25087,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>40.3204386478856</v>
       </c>
       <c r="I34" t="n">
         <v>81.26583631856553</v>
@@ -25120,7 +25120,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25315,16 +25315,16 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>62.35543909864943</v>
       </c>
       <c r="H37" t="n">
         <v>140.2947128462239</v>
@@ -25357,10 +25357,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>125.5054897610396</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25549,19 +25549,19 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>123.7828069546814</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>45.44677382459295</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
         <v>140.2947128462239</v>
@@ -25594,7 +25594,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25789,19 +25789,19 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>46.45968844823223</v>
       </c>
       <c r="F43" t="n">
-        <v>117.1847295890523</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
         <v>81.26583631856553</v>
@@ -25831,7 +25831,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -26026,22 +26026,22 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>45.44677382459294</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26074,7 +26074,7 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>138.494940240508</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>954934.4310738186</v>
+        <v>954934.4310738185</v>
       </c>
     </row>
     <row r="3">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>854933.8107554751</v>
+        <v>854933.810755475</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>930401.0649638837</v>
+        <v>930401.0649638838</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>935537.917223655</v>
+        <v>935537.9172236549</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>935537.917223655</v>
+        <v>935537.9172236548</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>935537.9172236552</v>
+        <v>935537.9172236549</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>935537.9172236549</v>
+        <v>935537.917223655</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>935537.917223655</v>
+        <v>935537.9172236549</v>
       </c>
     </row>
     <row r="12">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>935537.917223655</v>
+        <v>935537.9172236549</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>935537.917223655</v>
+        <v>935537.9172236549</v>
       </c>
     </row>
   </sheetData>
@@ -26311,25 +26311,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>492625.0619185704</v>
+        <v>492625.0619185705</v>
       </c>
       <c r="C2" t="n">
-        <v>492625.06191857</v>
+        <v>492625.0619185698</v>
       </c>
       <c r="D2" t="n">
-        <v>492625.06191857</v>
+        <v>492625.0619185701</v>
       </c>
       <c r="E2" t="n">
-        <v>442233.6433958225</v>
+        <v>442233.6433958224</v>
       </c>
       <c r="F2" t="n">
-        <v>481607.8629828187</v>
+        <v>481607.8629828183</v>
       </c>
       <c r="G2" t="n">
         <v>484287.9598140037</v>
       </c>
       <c r="H2" t="n">
-        <v>484287.9598140037</v>
+        <v>484287.9598140036</v>
       </c>
       <c r="I2" t="n">
         <v>484287.9598140036</v>
@@ -26341,7 +26341,7 @@
         <v>484287.9598140034</v>
       </c>
       <c r="L2" t="n">
-        <v>484287.9598140036</v>
+        <v>484287.9598140035</v>
       </c>
       <c r="M2" t="n">
         <v>484287.9598140037</v>
@@ -26350,10 +26350,10 @@
         <v>484287.9598140035</v>
       </c>
       <c r="O2" t="n">
-        <v>484287.9598140037</v>
+        <v>484287.9598140034</v>
       </c>
       <c r="P2" t="n">
-        <v>484287.9598140037</v>
+        <v>484287.9598140036</v>
       </c>
     </row>
     <row r="3">
@@ -26363,22 +26363,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>680087.9805911928</v>
+        <v>680087.9805911932</v>
       </c>
       <c r="C3" t="n">
-        <v>132064.9098103556</v>
+        <v>132064.9098103542</v>
       </c>
       <c r="D3" t="n">
-        <v>266112.9182196344</v>
+        <v>266112.9182196356</v>
       </c>
       <c r="E3" t="n">
-        <v>325187.1190357064</v>
+        <v>325187.1190357062</v>
       </c>
       <c r="F3" t="n">
-        <v>166521.3471051379</v>
+        <v>166521.3471051384</v>
       </c>
       <c r="G3" t="n">
-        <v>11167.23623557904</v>
+        <v>11167.23623557874</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,22 +26387,22 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>68999.15441911407</v>
+        <v>68999.1544191141</v>
       </c>
       <c r="K3" t="n">
-        <v>30705.53736648406</v>
+        <v>30705.53736648375</v>
       </c>
       <c r="L3" t="n">
-        <v>65187.38037950804</v>
+        <v>65187.38037950833</v>
       </c>
       <c r="M3" t="n">
         <v>84929.59434456818</v>
       </c>
       <c r="N3" t="n">
-        <v>43782.40655848911</v>
+        <v>43782.40655848926</v>
       </c>
       <c r="O3" t="n">
-        <v>3023.297977224748</v>
+        <v>3023.297977224584</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26415,19 +26415,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>246753.8673982314</v>
+        <v>246753.8673982313</v>
       </c>
       <c r="C4" t="n">
-        <v>210781.1722492925</v>
+        <v>210781.1722492928</v>
       </c>
       <c r="D4" t="n">
         <v>134318.0002618637</v>
       </c>
       <c r="E4" t="n">
-        <v>8018.191469425931</v>
+        <v>8018.191469425932</v>
       </c>
       <c r="F4" t="n">
-        <v>8110.779805506622</v>
+        <v>8110.779805506623</v>
       </c>
       <c r="G4" t="n">
         <v>8117.312426731974</v>
@@ -26436,25 +26436,25 @@
         <v>8117.312426731974</v>
       </c>
       <c r="I4" t="n">
-        <v>8117.312426731986</v>
+        <v>8117.312426731987</v>
       </c>
       <c r="J4" t="n">
-        <v>8117.31242673198</v>
+        <v>8117.312426731974</v>
       </c>
       <c r="K4" t="n">
-        <v>8117.312426731984</v>
+        <v>8117.312426731983</v>
       </c>
       <c r="L4" t="n">
-        <v>8117.31242673198</v>
+        <v>8117.312426731985</v>
       </c>
       <c r="M4" t="n">
-        <v>8117.312426732034</v>
+        <v>8117.312426731985</v>
       </c>
       <c r="N4" t="n">
-        <v>8117.312426732</v>
+        <v>8117.312426731976</v>
       </c>
       <c r="O4" t="n">
-        <v>8117.312426731974</v>
+        <v>8117.312426731996</v>
       </c>
       <c r="P4" t="n">
         <v>8117.312426731974</v>
@@ -26467,16 +26467,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>63047.80320426619</v>
+        <v>63047.80320426621</v>
       </c>
       <c r="C5" t="n">
-        <v>72540.50950589738</v>
+        <v>72540.50950589731</v>
       </c>
       <c r="D5" t="n">
         <v>92937.7724398447</v>
       </c>
       <c r="E5" t="n">
-        <v>86093.72216214711</v>
+        <v>86093.72216214708</v>
       </c>
       <c r="F5" t="n">
         <v>100142.1285138384</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-497264.58927512</v>
+        <v>-497264.5892751203</v>
       </c>
       <c r="C6" t="n">
-        <v>77238.47035302455</v>
+        <v>77238.47035302546</v>
       </c>
       <c r="D6" t="n">
-        <v>-743.6290027728537</v>
+        <v>-743.6290027739014</v>
       </c>
       <c r="E6" t="n">
-        <v>22934.61072854306</v>
+        <v>22724.64648469843</v>
       </c>
       <c r="F6" t="n">
-        <v>206833.6075583358</v>
+        <v>206787.7025627692</v>
       </c>
       <c r="G6" t="n">
-        <v>363880.8813277855</v>
+        <v>363846.1434023501</v>
       </c>
       <c r="H6" t="n">
-        <v>375048.1175633646</v>
+        <v>375013.3796379287</v>
       </c>
       <c r="I6" t="n">
-        <v>375048.1175633644</v>
+        <v>375013.3796379287</v>
       </c>
       <c r="J6" t="n">
-        <v>306048.9631442504</v>
+        <v>306014.2252188146</v>
       </c>
       <c r="K6" t="n">
-        <v>344342.5801968803</v>
+        <v>344307.8422714449</v>
       </c>
       <c r="L6" t="n">
-        <v>309860.7371838564</v>
+        <v>309825.9992584204</v>
       </c>
       <c r="M6" t="n">
-        <v>290118.5232187964</v>
+        <v>290083.7852933608</v>
       </c>
       <c r="N6" t="n">
-        <v>331265.7110048753</v>
+        <v>331230.9730794394</v>
       </c>
       <c r="O6" t="n">
-        <v>372024.8195861399</v>
+        <v>371990.081660704</v>
       </c>
       <c r="P6" t="n">
-        <v>375048.1175633646</v>
+        <v>375013.3796379288</v>
       </c>
     </row>
   </sheetData>
@@ -26735,10 +26735,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>614.0550137694781</v>
+        <v>614.0550137694784</v>
       </c>
       <c r="C3" t="n">
-        <v>716.7570176605236</v>
+        <v>716.7570176605227</v>
       </c>
       <c r="D3" t="n">
         <v>934.0648921175393</v>
@@ -26787,19 +26787,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>263.7138800015061</v>
+        <v>263.7138800015063</v>
       </c>
       <c r="C4" t="n">
-        <v>383.0198440937168</v>
+        <v>383.0198440937156</v>
       </c>
       <c r="D4" t="n">
         <v>640.5848321000387</v>
       </c>
       <c r="E4" t="n">
-        <v>981.3883278086479</v>
+        <v>981.3883278086477</v>
       </c>
       <c r="F4" t="n">
-        <v>1160.145290326006</v>
+        <v>1160.145290326007</v>
       </c>
       <c r="G4" t="n">
         <v>1172.708288099648</v>
@@ -26957,22 +26957,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>614.0550137694781</v>
+        <v>614.0550137694784</v>
       </c>
       <c r="C3" t="n">
-        <v>102.7020038910455</v>
+        <v>102.7020038910443</v>
       </c>
       <c r="D3" t="n">
-        <v>217.3078744570157</v>
+        <v>217.3078744570166</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1053753770166</v>
+        <v>278.1053753770163</v>
       </c>
       <c r="F3" t="n">
-        <v>145.8707812218297</v>
+        <v>145.8707812218302</v>
       </c>
       <c r="G3" t="n">
-        <v>9.934451625288148</v>
+        <v>9.93445162528792</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27009,22 +27009,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>263.7138800015061</v>
+        <v>263.7138800015063</v>
       </c>
       <c r="C4" t="n">
-        <v>119.3059640922106</v>
+        <v>119.3059640922094</v>
       </c>
       <c r="D4" t="n">
-        <v>257.564988006322</v>
+        <v>257.5649880063231</v>
       </c>
       <c r="E4" t="n">
-        <v>340.8034957086091</v>
+        <v>340.8034957086089</v>
       </c>
       <c r="F4" t="n">
-        <v>178.7569625173586</v>
+        <v>178.7569625173593</v>
       </c>
       <c r="G4" t="n">
-        <v>12.56299777364188</v>
+        <v>12.56299777364143</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27033,22 +27033,22 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>263.7138800015061</v>
+        <v>263.7138800015063</v>
       </c>
       <c r="K4" t="n">
-        <v>119.3059640922106</v>
+        <v>119.3059640922094</v>
       </c>
       <c r="L4" t="n">
-        <v>257.564988006322</v>
+        <v>257.5649880063231</v>
       </c>
       <c r="M4" t="n">
         <v>340.8034957086089</v>
       </c>
       <c r="N4" t="n">
-        <v>178.7569625173587</v>
+        <v>178.7569625173593</v>
       </c>
       <c r="O4" t="n">
-        <v>12.56299777364211</v>
+        <v>12.56299777364143</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27255,22 +27255,22 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>263.7138800015061</v>
+        <v>263.7138800015063</v>
       </c>
       <c r="K4" t="n">
-        <v>119.3059640922106</v>
+        <v>119.3059640922094</v>
       </c>
       <c r="L4" t="n">
-        <v>257.564988006322</v>
+        <v>257.5649880063231</v>
       </c>
       <c r="M4" t="n">
-        <v>340.8034957086091</v>
+        <v>340.8034957086089</v>
       </c>
       <c r="N4" t="n">
-        <v>178.7569625173586</v>
+        <v>178.7569625173593</v>
       </c>
       <c r="O4" t="n">
-        <v>12.56299777364188</v>
+        <v>12.56299777364143</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27388,16 +27388,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>378.6812964609977</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>149.1202946442039</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>314.193632629268</v>
+        <v>50.47975262776174</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>115.3066195468971</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27430,13 +27430,13 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>139.9227315613165</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>64.03837846862865</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -27455,28 +27455,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>136.0227195864234</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>99.47932027120974</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>43.92180400150558</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27506,13 +27506,13 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>147.1499354121988</v>
       </c>
       <c r="T3" t="n">
         <v>194.8409875848768</v>
       </c>
       <c r="U3" t="n">
-        <v>225.8544875035546</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -27521,10 +27521,10 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
-        <v>4.94826346305689</v>
+        <v>178.8207042937001</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -27534,16 +27534,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>114.0887711247958</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
@@ -27555,10 +27555,10 @@
         <v>152.3821593358568</v>
       </c>
       <c r="I4" t="n">
-        <v>122.1505735248086</v>
+        <v>122.1505735248085</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>15.07219909888208</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27585,13 +27585,13 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>204.7191642435938</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>223.2143458795659</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2586305026775</v>
+        <v>22.54475050117124</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -27600,10 +27600,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>54.46773963149596</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27613,25 +27613,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>94.22363366815415</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
+        <v>23.85620164799582</v>
+      </c>
+      <c r="G5" t="n">
         <v>400</v>
       </c>
-      <c r="G5" t="n">
-        <v>352.5753344634645</v>
-      </c>
       <c r="H5" t="n">
-        <v>309.9653033936934</v>
+        <v>309.9653033936935</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27664,13 +27664,13 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>143.3593638980476</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>210.4823667709296</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.1151380880864</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -27692,16 +27692,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>32.43130881100973</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
         <v>145.0692123933839</v>
@@ -27710,10 +27710,10 @@
         <v>135.8018133893748</v>
       </c>
       <c r="H6" t="n">
-        <v>74.14786928800375</v>
+        <v>97.34583147339768</v>
       </c>
       <c r="I6" t="n">
-        <v>36.31604239259327</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27740,22 +27740,22 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>4.436963001677441</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>143.0466996907028</v>
       </c>
       <c r="T6" t="n">
         <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>225.8399542011172</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
         <v>0</v>
@@ -27771,7 +27771,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
@@ -27780,13 +27780,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>27.95015241583494</v>
+        <v>166.6984667036611</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -27795,7 +27795,7 @@
         <v>116.5810943629794</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>1.978535422477947</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27828,16 +27828,16 @@
         <v>222.4230353577824</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2485286662292</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>44.96539151645771</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27853,22 +27853,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>141.8690840328262</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27907,19 +27907,19 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>383.4985490209929</v>
       </c>
     </row>
     <row r="9">
@@ -28011,13 +28011,13 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
@@ -28056,22 +28056,22 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>194.6624603617375</v>
       </c>
       <c r="T10" t="n">
-        <v>220.7486959972119</v>
+        <v>61.88397726002313</v>
       </c>
       <c r="U10" t="n">
-        <v>195.5290386500999</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -28861,7 +28861,7 @@
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>1.743864684146899e-12</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
@@ -29004,7 +29004,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>-3.500712846256165e-12</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -29992,7 +29992,7 @@
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>1.307398633798584e-12</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
@@ -30040,7 +30040,7 @@
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>2.557953848736361e-13</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -30274,7 +30274,7 @@
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>5.684341886080801e-13</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
@@ -30475,7 +30475,7 @@
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>2.399420695632097e-13</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -31039,49 +31039,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>2.468562869425036</v>
+        <v>2.468562869425037</v>
       </c>
       <c r="H2" t="n">
         <v>25.28116948649916</v>
       </c>
       <c r="I2" t="n">
-        <v>95.16927002350879</v>
+        <v>95.16927002350883</v>
       </c>
       <c r="J2" t="n">
-        <v>209.5161878388633</v>
+        <v>209.5161878388634</v>
       </c>
       <c r="K2" t="n">
-        <v>314.0104541016252</v>
+        <v>314.0104541016253</v>
       </c>
       <c r="L2" t="n">
-        <v>389.5577350167917</v>
+        <v>389.5577350167918</v>
       </c>
       <c r="M2" t="n">
-        <v>433.4580399459292</v>
+        <v>433.4580399459293</v>
       </c>
       <c r="N2" t="n">
-        <v>440.4718441986831</v>
+        <v>440.4718441986832</v>
       </c>
       <c r="O2" t="n">
-        <v>415.9250721658378</v>
+        <v>415.925072165838</v>
       </c>
       <c r="P2" t="n">
-        <v>354.9824263269072</v>
+        <v>354.9824263269073</v>
       </c>
       <c r="Q2" t="n">
-        <v>266.577018565623</v>
+        <v>266.5770185656231</v>
       </c>
       <c r="R2" t="n">
         <v>155.0658623465206</v>
       </c>
       <c r="S2" t="n">
-        <v>56.25237638702306</v>
+        <v>56.25237638702308</v>
       </c>
       <c r="T2" t="n">
         <v>10.8061339609081</v>
       </c>
       <c r="U2" t="n">
-        <v>0.1974850295540028</v>
+        <v>0.1974850295540029</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,49 +31118,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.320797576787179</v>
+        <v>1.32079757678718</v>
       </c>
       <c r="H3" t="n">
         <v>12.75612396528671</v>
       </c>
       <c r="I3" t="n">
-        <v>45.47482884990947</v>
+        <v>45.47482884990949</v>
       </c>
       <c r="J3" t="n">
-        <v>124.7864061472484</v>
+        <v>124.7864061472485</v>
       </c>
       <c r="K3" t="n">
-        <v>213.2798437919894</v>
+        <v>213.2798437919895</v>
       </c>
       <c r="L3" t="n">
-        <v>286.7810703458304</v>
+        <v>286.7810703458305</v>
       </c>
       <c r="M3" t="n">
-        <v>334.6599825043655</v>
+        <v>334.6599825043656</v>
       </c>
       <c r="N3" t="n">
-        <v>343.5174364293989</v>
+        <v>343.517436429399</v>
       </c>
       <c r="O3" t="n">
-        <v>314.2513427542725</v>
+        <v>314.2513427542726</v>
       </c>
       <c r="P3" t="n">
-        <v>252.2144074480711</v>
+        <v>252.2144074480713</v>
       </c>
       <c r="Q3" t="n">
         <v>168.5986520825179</v>
       </c>
       <c r="R3" t="n">
-        <v>82.00530919736543</v>
+        <v>82.00530919736546</v>
       </c>
       <c r="S3" t="n">
-        <v>24.53323569163904</v>
+        <v>24.53323569163905</v>
       </c>
       <c r="T3" t="n">
-        <v>5.323741109944813</v>
+        <v>5.323741109944815</v>
       </c>
       <c r="U3" t="n">
-        <v>0.0868945774202092</v>
+        <v>0.08689457742020924</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,22 +31197,22 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.107312319912173</v>
+        <v>1.107312319912174</v>
       </c>
       <c r="H4" t="n">
-        <v>9.845013171582787</v>
+        <v>9.84501317158279</v>
       </c>
       <c r="I4" t="n">
-        <v>33.29990140244974</v>
+        <v>33.29990140244975</v>
       </c>
       <c r="J4" t="n">
-        <v>78.28698101779067</v>
+        <v>78.28698101779069</v>
       </c>
       <c r="K4" t="n">
-        <v>128.6495586225234</v>
+        <v>128.6495586225235</v>
       </c>
       <c r="L4" t="n">
-        <v>164.6271425440335</v>
+        <v>164.6271425440336</v>
       </c>
       <c r="M4" t="n">
         <v>173.576239384051</v>
@@ -31221,25 +31221,25 @@
         <v>169.4489843734694</v>
       </c>
       <c r="O4" t="n">
-        <v>156.513563181768</v>
+        <v>156.5135631817681</v>
       </c>
       <c r="P4" t="n">
-        <v>133.9243918555595</v>
+        <v>133.9243918555596</v>
       </c>
       <c r="Q4" t="n">
-        <v>92.7223070791912</v>
+        <v>92.72230707919122</v>
       </c>
       <c r="R4" t="n">
-        <v>49.78878849350554</v>
+        <v>49.78878849350556</v>
       </c>
       <c r="S4" t="n">
-        <v>19.29743379337851</v>
+        <v>19.29743379337852</v>
       </c>
       <c r="T4" t="n">
-        <v>4.73124354871565</v>
+        <v>4.731243548715652</v>
       </c>
       <c r="U4" t="n">
-        <v>0.06039885381339136</v>
+        <v>0.06039885381339138</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31276,49 +31276,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>2.881435246876475</v>
+        <v>2.881435246876471</v>
       </c>
       <c r="H5" t="n">
-        <v>29.5094987220737</v>
+        <v>29.50949872207367</v>
       </c>
       <c r="I5" t="n">
-        <v>111.0865323552054</v>
+        <v>111.0865323552053</v>
       </c>
       <c r="J5" t="n">
-        <v>244.5582147845824</v>
+        <v>244.5582147845821</v>
       </c>
       <c r="K5" t="n">
-        <v>366.5293687848637</v>
+        <v>366.5293687848632</v>
       </c>
       <c r="L5" t="n">
-        <v>454.7120927214597</v>
+        <v>454.7120927214591</v>
       </c>
       <c r="M5" t="n">
-        <v>505.9548167930992</v>
+        <v>505.9548167930985</v>
       </c>
       <c r="N5" t="n">
-        <v>514.141694688287</v>
+        <v>514.1416946882863</v>
       </c>
       <c r="O5" t="n">
-        <v>485.489422952159</v>
+        <v>485.4894229521584</v>
       </c>
       <c r="P5" t="n">
-        <v>414.353990294896</v>
+        <v>414.3539902948954</v>
       </c>
       <c r="Q5" t="n">
-        <v>311.1625905161321</v>
+        <v>311.1625905161317</v>
       </c>
       <c r="R5" t="n">
-        <v>181.0009568266045</v>
+        <v>181.0009568266043</v>
       </c>
       <c r="S5" t="n">
-        <v>65.66070568819774</v>
+        <v>65.66070568819765</v>
       </c>
       <c r="T5" t="n">
-        <v>12.61348279320177</v>
+        <v>12.61348279320176</v>
       </c>
       <c r="U5" t="n">
-        <v>0.2305148197501179</v>
+        <v>0.2305148197501176</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,49 +31355,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>1.541703773835843</v>
+        <v>1.541703773835841</v>
       </c>
       <c r="H6" t="n">
-        <v>14.88961276309881</v>
+        <v>14.88961276309879</v>
       </c>
       <c r="I6" t="n">
-        <v>53.0805904588218</v>
+        <v>53.08059045882174</v>
       </c>
       <c r="J6" t="n">
-        <v>145.6571973342013</v>
+        <v>145.6571973342012</v>
       </c>
       <c r="K6" t="n">
-        <v>248.9513501812028</v>
+        <v>248.9513501812025</v>
       </c>
       <c r="L6" t="n">
-        <v>334.7458128234361</v>
+        <v>334.7458128234356</v>
       </c>
       <c r="M6" t="n">
-        <v>390.6325746249853</v>
+        <v>390.6325746249848</v>
       </c>
       <c r="N6" t="n">
-        <v>400.9714565118056</v>
+        <v>400.9714565118051</v>
       </c>
       <c r="O6" t="n">
-        <v>366.8105465757587</v>
+        <v>366.8105465757583</v>
       </c>
       <c r="P6" t="n">
-        <v>294.3978022160744</v>
+        <v>294.397802216074</v>
       </c>
       <c r="Q6" t="n">
-        <v>196.797134358414</v>
+        <v>196.7971343584137</v>
       </c>
       <c r="R6" t="n">
-        <v>95.72087115096582</v>
+        <v>95.72087115096569</v>
       </c>
       <c r="S6" t="n">
-        <v>28.63647141313505</v>
+        <v>28.63647141313502</v>
       </c>
       <c r="T6" t="n">
-        <v>6.214148105943594</v>
+        <v>6.214148105943586</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1014278798576213</v>
+        <v>0.1014278798576212</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,49 +31434,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.292512654797665</v>
+        <v>1.292512654797664</v>
       </c>
       <c r="H7" t="n">
-        <v>11.49161251265562</v>
+        <v>11.4916125126556</v>
       </c>
       <c r="I7" t="n">
-        <v>38.86938056427889</v>
+        <v>38.86938056427885</v>
       </c>
       <c r="J7" t="n">
-        <v>91.38064469419494</v>
+        <v>91.38064469419483</v>
       </c>
       <c r="K7" t="n">
-        <v>150.1664702574014</v>
+        <v>150.1664702574013</v>
       </c>
       <c r="L7" t="n">
-        <v>192.161381423282</v>
+        <v>192.1613814232818</v>
       </c>
       <c r="M7" t="n">
-        <v>202.6072336970558</v>
+        <v>202.6072336970556</v>
       </c>
       <c r="N7" t="n">
-        <v>197.7896865291738</v>
+        <v>197.7896865291735</v>
       </c>
       <c r="O7" t="n">
-        <v>182.6907886981283</v>
+        <v>182.690788698128</v>
       </c>
       <c r="P7" t="n">
-        <v>156.3235305402557</v>
+        <v>156.3235305402556</v>
       </c>
       <c r="Q7" t="n">
-        <v>108.2303096667391</v>
+        <v>108.2303096667389</v>
       </c>
       <c r="R7" t="n">
-        <v>58.11606900572047</v>
+        <v>58.11606900572039</v>
       </c>
       <c r="S7" t="n">
-        <v>22.52497053861022</v>
+        <v>22.52497053861019</v>
       </c>
       <c r="T7" t="n">
-        <v>5.522554070499115</v>
+        <v>5.522554070499107</v>
       </c>
       <c r="U7" t="n">
-        <v>0.07050069026169092</v>
+        <v>0.07050069026169083</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31753,37 +31753,37 @@
         <v>4.873046301485648</v>
       </c>
       <c r="H11" t="n">
-        <v>49.90608543508991</v>
+        <v>49.9060854350899</v>
       </c>
       <c r="I11" t="n">
         <v>187.8681175380256</v>
       </c>
       <c r="J11" t="n">
-        <v>413.5937135307179</v>
+        <v>413.5937135307178</v>
       </c>
       <c r="K11" t="n">
-        <v>619.8697634726055</v>
+        <v>619.8697634726054</v>
       </c>
       <c r="L11" t="n">
-        <v>769.003254221697</v>
+        <v>769.0032542216969</v>
       </c>
       <c r="M11" t="n">
-        <v>855.6642913857424</v>
+        <v>855.6642913857423</v>
       </c>
       <c r="N11" t="n">
-        <v>869.5098341898387</v>
+        <v>869.5098341898384</v>
       </c>
       <c r="O11" t="n">
-        <v>821.0534800294406</v>
+        <v>821.0534800294405</v>
       </c>
       <c r="P11" t="n">
-        <v>700.7501494615136</v>
+        <v>700.7501494615135</v>
       </c>
       <c r="Q11" t="n">
-        <v>526.2341787895587</v>
+        <v>526.2341787895585</v>
       </c>
       <c r="R11" t="n">
-        <v>306.1064947356981</v>
+        <v>306.106494735698</v>
       </c>
       <c r="S11" t="n">
         <v>111.0445425951043</v>
@@ -31792,7 +31792,7 @@
         <v>21.33176018475343</v>
       </c>
       <c r="U11" t="n">
-        <v>0.3898437041188518</v>
+        <v>0.3898437041188517</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31835,37 +31835,37 @@
         <v>25.18112197191521</v>
       </c>
       <c r="I12" t="n">
-        <v>89.76921320596476</v>
+        <v>89.76921320596475</v>
       </c>
       <c r="J12" t="n">
-        <v>246.3335823783041</v>
+        <v>246.333582378304</v>
       </c>
       <c r="K12" t="n">
         <v>421.0233277202553</v>
       </c>
       <c r="L12" t="n">
-        <v>566.1178216256415</v>
+        <v>566.1178216256413</v>
       </c>
       <c r="M12" t="n">
-        <v>660.6327957845328</v>
+        <v>660.6327957845327</v>
       </c>
       <c r="N12" t="n">
-        <v>678.1177801147139</v>
+        <v>237.3367583732575</v>
       </c>
       <c r="O12" t="n">
-        <v>620.3452877431808</v>
+        <v>620.3452877431807</v>
       </c>
       <c r="P12" t="n">
-        <v>133.9744074143302</v>
+        <v>497.8817840205469</v>
       </c>
       <c r="Q12" t="n">
-        <v>272.1495468613099</v>
+        <v>332.8207874071845</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>161.8819085533296</v>
       </c>
       <c r="S12" t="n">
-        <v>48.42963285697586</v>
+        <v>48.42963285697585</v>
       </c>
       <c r="T12" t="n">
         <v>10.50928750780657</v>
@@ -31914,40 +31914,40 @@
         <v>19.43446756737174</v>
       </c>
       <c r="I13" t="n">
-        <v>65.73539745691789</v>
+        <v>65.73539745691788</v>
       </c>
       <c r="J13" t="n">
         <v>154.5417732836911</v>
       </c>
       <c r="K13" t="n">
-        <v>253.9596068619741</v>
+        <v>253.959606861974</v>
       </c>
       <c r="L13" t="n">
-        <v>324.9808615509175</v>
+        <v>324.9808615509174</v>
       </c>
       <c r="M13" t="n">
-        <v>342.6467528263709</v>
+        <v>342.6467528263708</v>
       </c>
       <c r="N13" t="n">
-        <v>334.4993788973094</v>
+        <v>334.4993788973093</v>
       </c>
       <c r="O13" t="n">
-        <v>308.9643167050059</v>
+        <v>308.9643167050058</v>
       </c>
       <c r="P13" t="n">
-        <v>264.3723481761896</v>
+        <v>264.3723481761895</v>
       </c>
       <c r="Q13" t="n">
         <v>183.0377103916779</v>
       </c>
       <c r="R13" t="n">
-        <v>98.28514988570609</v>
+        <v>98.28514988570608</v>
       </c>
       <c r="S13" t="n">
-        <v>38.09394102929611</v>
+        <v>38.0939410292961</v>
       </c>
       <c r="T13" t="n">
-        <v>9.339672552826903</v>
+        <v>9.339672552826901</v>
       </c>
       <c r="U13" t="n">
         <v>0.1192298623765138</v>
@@ -31987,46 +31987,46 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.459461502377425</v>
+        <v>5.459461502377426</v>
       </c>
       <c r="H14" t="n">
-        <v>55.91171011122282</v>
+        <v>55.91171011122283</v>
       </c>
       <c r="I14" t="n">
         <v>210.4758895704059</v>
       </c>
       <c r="J14" t="n">
-        <v>463.3649706874064</v>
+        <v>463.3649706874065</v>
       </c>
       <c r="K14" t="n">
-        <v>694.463976083043</v>
+        <v>694.4639760830431</v>
       </c>
       <c r="L14" t="n">
-        <v>861.5439710364263</v>
+        <v>861.5439710364265</v>
       </c>
       <c r="M14" t="n">
-        <v>958.6336695293307</v>
+        <v>958.633669529331</v>
       </c>
       <c r="N14" t="n">
-        <v>974.1453645229608</v>
+        <v>974.1453645229609</v>
       </c>
       <c r="O14" t="n">
-        <v>919.8578442086952</v>
+        <v>919.8578442086953</v>
       </c>
       <c r="P14" t="n">
-        <v>785.0773883687524</v>
+        <v>785.0773883687525</v>
       </c>
       <c r="Q14" t="n">
-        <v>589.5604233148606</v>
+        <v>589.5604233148607</v>
       </c>
       <c r="R14" t="n">
-        <v>342.9428985987162</v>
+        <v>342.9428985987163</v>
       </c>
       <c r="S14" t="n">
         <v>124.4074789854257</v>
       </c>
       <c r="T14" t="n">
-        <v>23.89879272665719</v>
+        <v>23.8987927266572</v>
       </c>
       <c r="U14" t="n">
         <v>0.436756920190194</v>
@@ -32069,7 +32069,7 @@
         <v>2.921069425540905</v>
       </c>
       <c r="H15" t="n">
-        <v>28.2113810308819</v>
+        <v>28.21138103088191</v>
       </c>
       <c r="I15" t="n">
         <v>100.5719078530531</v>
@@ -32081,31 +32081,31 @@
         <v>471.6886536848224</v>
       </c>
       <c r="L15" t="n">
-        <v>138.5543797798742</v>
+        <v>634.2436048745725</v>
       </c>
       <c r="M15" t="n">
-        <v>538.3080670824485</v>
+        <v>740.1323715504302</v>
       </c>
       <c r="N15" t="n">
-        <v>759.7214730927637</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O15" t="n">
-        <v>694.9967242426204</v>
+        <v>357.2897453669896</v>
       </c>
       <c r="P15" t="n">
-        <v>557.7961431982453</v>
+        <v>557.7961431982454</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>372.8719498286953</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>181.3625385436714</v>
       </c>
       <c r="S15" t="n">
-        <v>54.2575834086216</v>
+        <v>54.25758340862161</v>
       </c>
       <c r="T15" t="n">
-        <v>11.77395965821092</v>
+        <v>11.77395965821093</v>
       </c>
       <c r="U15" t="n">
         <v>0.1921756201013754</v>
@@ -32151,7 +32151,7 @@
         <v>21.77318271548567</v>
       </c>
       <c r="I16" t="n">
-        <v>73.64589818284925</v>
+        <v>73.64589818284927</v>
       </c>
       <c r="J16" t="n">
         <v>173.1391022273333</v>
@@ -32160,16 +32160,16 @@
         <v>284.5207311900886</v>
       </c>
       <c r="L16" t="n">
-        <v>364.0885788640618</v>
+        <v>364.0885788640619</v>
       </c>
       <c r="M16" t="n">
-        <v>383.8803574265021</v>
+        <v>383.8803574265022</v>
       </c>
       <c r="N16" t="n">
-        <v>374.7525405416874</v>
+        <v>374.7525405416875</v>
       </c>
       <c r="O16" t="n">
-        <v>346.1446266465962</v>
+        <v>346.1446266465963</v>
       </c>
       <c r="P16" t="n">
         <v>296.1865264282424</v>
@@ -32181,7 +32181,7 @@
         <v>110.1126397860859</v>
       </c>
       <c r="S16" t="n">
-        <v>42.67810967851328</v>
+        <v>42.67810967851329</v>
       </c>
       <c r="T16" t="n">
         <v>10.46359496551969</v>
@@ -32309,16 +32309,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>170.9292585737929</v>
       </c>
       <c r="K18" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L18" t="n">
-        <v>399.9031616963283</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
         <v>745.5466476862121</v>
@@ -32327,16 +32327,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P18" t="n">
         <v>561.8765786214698</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R18" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S18" t="n">
         <v>54.65449286742438</v>
@@ -32546,19 +32546,19 @@
         <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J21" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K21" t="n">
-        <v>324.9782573297445</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862121</v>
+        <v>734.2678383622665</v>
       </c>
       <c r="N21" t="n">
         <v>765.2790490071785</v>
@@ -32567,13 +32567,13 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q21" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R21" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S21" t="n">
         <v>54.65449286742438</v>
@@ -32786,13 +32786,13 @@
         <v>99.52238</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>164.2853229338207</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M24" t="n">
         <v>745.5466476862121</v>
@@ -32801,16 +32801,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>628.2482078836097</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R24" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S24" t="n">
         <v>54.65449286742438</v>
@@ -33020,10 +33020,10 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J27" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K27" t="n">
         <v>475.1391886422585</v>
@@ -33032,22 +33032,22 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862121</v>
+        <v>454.1257695262137</v>
       </c>
       <c r="N27" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>398.7616643558013</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P27" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q27" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R27" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742438</v>
@@ -33260,16 +33260,16 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>240.4469701760392</v>
       </c>
       <c r="M30" t="n">
-        <v>732.4825987614915</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N30" t="n">
         <v>765.2790490071785</v>
@@ -33494,16 +33494,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J33" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M33" t="n">
         <v>745.5466476862121</v>
@@ -33512,16 +33512,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>398.7616643558013</v>
+        <v>688.8020111197787</v>
       </c>
       <c r="P33" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q33" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R33" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742438</v>
@@ -33731,28 +33731,28 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>164.2853229338208</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O36" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>382.1329742631541</v>
       </c>
       <c r="Q36" t="n">
         <v>375.599612848529</v>
@@ -33968,16 +33968,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J39" t="n">
-        <v>150.7833302198384</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K39" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
         <v>745.5466476862121</v>
@@ -33986,13 +33986,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>461.1007071927452</v>
       </c>
       <c r="P39" t="n">
         <v>561.8765786214698</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
         <v>145.679503963964</v>
@@ -34211,28 +34211,28 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M42" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>463.9598929192557</v>
+        <v>601.0567753070492</v>
       </c>
       <c r="O42" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P42" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q42" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R42" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34454,22 +34454,22 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862121</v>
+        <v>729.0844763571695</v>
       </c>
       <c r="N45" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>398.7616643558013</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P45" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R45" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -34696,28 +34696,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>28.47028331217703</v>
+        <v>28.47028331217712</v>
       </c>
       <c r="K2" t="n">
-        <v>93.92060305664461</v>
+        <v>93.92060305664472</v>
       </c>
       <c r="L2" t="n">
-        <v>153.7913200468045</v>
+        <v>153.7913200468046</v>
       </c>
       <c r="M2" t="n">
-        <v>203.1118067186564</v>
+        <v>203.1118067186566</v>
       </c>
       <c r="N2" t="n">
-        <v>211.0587806020922</v>
+        <v>211.0587806020923</v>
       </c>
       <c r="O2" t="n">
-        <v>185.8268607441511</v>
+        <v>185.8268607441513</v>
       </c>
       <c r="P2" t="n">
-        <v>123.7494305716377</v>
+        <v>123.7494305716378</v>
       </c>
       <c r="Q2" t="n">
-        <v>44.27132869117352</v>
+        <v>44.27132869117364</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34775,28 +34775,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>97.32166909127285</v>
+        <v>26.13373767211372</v>
       </c>
       <c r="K3" t="n">
-        <v>75.43840481763041</v>
+        <v>75.4384048176305</v>
       </c>
       <c r="L3" t="n">
-        <v>148.2266905659562</v>
+        <v>148.2266905659563</v>
       </c>
       <c r="M3" t="n">
-        <v>192.5259485823472</v>
+        <v>263.7138800015063</v>
       </c>
       <c r="N3" t="n">
-        <v>212.1757243460656</v>
+        <v>212.1757243460657</v>
       </c>
       <c r="O3" t="n">
-        <v>171.655098309828</v>
+        <v>171.6550983098281</v>
       </c>
       <c r="P3" t="n">
-        <v>118.2400000337409</v>
+        <v>118.240000033741</v>
       </c>
       <c r="Q3" t="n">
-        <v>28.61687799649636</v>
+        <v>28.61687799649641</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34872,10 +34872,10 @@
         <v>181.0986910958077</v>
       </c>
       <c r="P4" t="n">
-        <v>131.202951120453</v>
+        <v>131.2029511204531</v>
       </c>
       <c r="Q4" t="n">
-        <v>6.560263827496811</v>
+        <v>6.56026382749684</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,28 +34933,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>63.51231025789613</v>
+        <v>63.51231025789582</v>
       </c>
       <c r="K5" t="n">
-        <v>146.4395177398831</v>
+        <v>146.4395177398827</v>
       </c>
       <c r="L5" t="n">
-        <v>218.9456777514724</v>
+        <v>218.9456777514719</v>
       </c>
       <c r="M5" t="n">
-        <v>275.6085835658264</v>
+        <v>275.6085835658258</v>
       </c>
       <c r="N5" t="n">
-        <v>284.7286310916961</v>
+        <v>284.7286310916954</v>
       </c>
       <c r="O5" t="n">
-        <v>255.3912115304722</v>
+        <v>255.3912115304717</v>
       </c>
       <c r="P5" t="n">
-        <v>183.1209945396265</v>
+        <v>183.1209945396259</v>
       </c>
       <c r="Q5" t="n">
-        <v>88.85690064168264</v>
+        <v>88.85690064168224</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35012,28 +35012,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>18.81957066753463</v>
+        <v>18.81957066753446</v>
       </c>
       <c r="K6" t="n">
-        <v>342.011481070569</v>
+        <v>111.1099112068435</v>
       </c>
       <c r="L6" t="n">
-        <v>196.1914330435619</v>
+        <v>292.5716995165358</v>
       </c>
       <c r="M6" t="n">
-        <v>248.498540702967</v>
+        <v>383.0198440937156</v>
       </c>
       <c r="N6" t="n">
-        <v>269.6297444284722</v>
+        <v>269.6297444284718</v>
       </c>
       <c r="O6" t="n">
-        <v>224.2143021313143</v>
+        <v>224.2143021313138</v>
       </c>
       <c r="P6" t="n">
-        <v>160.4233948017441</v>
+        <v>160.4233948017437</v>
       </c>
       <c r="Q6" t="n">
-        <v>56.81536027239247</v>
+        <v>56.81536027239221</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35094,25 +35094,25 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>127.8969784315186</v>
+        <v>127.8969784315184</v>
       </c>
       <c r="L7" t="n">
-        <v>219.7514066835982</v>
+        <v>219.7514066835979</v>
       </c>
       <c r="M7" t="n">
-        <v>242.1911106588964</v>
+        <v>242.1911106588962</v>
       </c>
       <c r="N7" t="n">
-        <v>241.9218589084024</v>
+        <v>241.9218589084021</v>
       </c>
       <c r="O7" t="n">
-        <v>207.2759166121679</v>
+        <v>207.2759166121677</v>
       </c>
       <c r="P7" t="n">
-        <v>153.6020898051492</v>
+        <v>153.6020898051491</v>
       </c>
       <c r="Q7" t="n">
-        <v>22.06826641504468</v>
+        <v>22.06826641504453</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35252,16 +35252,16 @@
         <v>189.0712562313263</v>
       </c>
       <c r="K9" t="n">
-        <v>340.6043982600038</v>
+        <v>186.5874962434848</v>
       </c>
       <c r="L9" t="n">
-        <v>297.6803606378502</v>
+        <v>466.423818815914</v>
       </c>
       <c r="M9" t="n">
         <v>366.9313322820406</v>
       </c>
       <c r="N9" t="n">
-        <v>640.5848321000387</v>
+        <v>391.197099592874</v>
       </c>
       <c r="O9" t="n">
         <v>335.4246819961231</v>
@@ -35270,10 +35270,10 @@
         <v>249.6795291235323</v>
       </c>
       <c r="Q9" t="n">
-        <v>116.4807223308546</v>
+        <v>326.5580100667037</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>24.58388860977094</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>232.5478090040316</v>
+        <v>232.5478090040315</v>
       </c>
       <c r="K11" t="n">
-        <v>399.779912427625</v>
+        <v>399.7799124276249</v>
       </c>
       <c r="L11" t="n">
-        <v>533.2368392517099</v>
+        <v>533.2368392517096</v>
       </c>
       <c r="M11" t="n">
-        <v>625.3180581584697</v>
+        <v>625.3180581584696</v>
       </c>
       <c r="N11" t="n">
-        <v>640.0967705932478</v>
+        <v>640.0967705932476</v>
       </c>
       <c r="O11" t="n">
-        <v>590.9552686077539</v>
+        <v>590.9552686077537</v>
       </c>
       <c r="P11" t="n">
-        <v>469.5171537062441</v>
+        <v>469.517153706244</v>
       </c>
       <c r="Q11" t="n">
-        <v>303.9284889151091</v>
+        <v>303.928488915109</v>
       </c>
       <c r="R11" t="n">
-        <v>90.52095692156598</v>
+        <v>90.52095692156593</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35492,25 +35492,25 @@
         <v>283.1818887458963</v>
       </c>
       <c r="L12" t="n">
-        <v>427.5634418457673</v>
+        <v>427.5634418457672</v>
       </c>
       <c r="M12" t="n">
-        <v>518.4987618625146</v>
+        <v>518.4987618625144</v>
       </c>
       <c r="N12" t="n">
-        <v>546.7760680313806</v>
+        <v>105.9950462899242</v>
       </c>
       <c r="O12" t="n">
-        <v>477.7490432987364</v>
+        <v>477.7490432987363</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>363.9073766062166</v>
       </c>
       <c r="Q12" t="n">
-        <v>132.1677727752884</v>
+        <v>192.839013321163</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>16.20240458936564</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,13 +35565,13 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>61.18259316701835</v>
+        <v>61.18259316701833</v>
       </c>
       <c r="K13" t="n">
         <v>231.6901150360912</v>
       </c>
       <c r="L13" t="n">
-        <v>352.5708868112337</v>
+        <v>352.5708868112335</v>
       </c>
       <c r="M13" t="n">
         <v>382.2306297882114</v>
@@ -35580,13 +35580,13 @@
         <v>378.6315512765379</v>
       </c>
       <c r="O13" t="n">
-        <v>333.5494446190456</v>
+        <v>333.5494446190455</v>
       </c>
       <c r="P13" t="n">
-        <v>261.6509074410831</v>
+        <v>261.650907441083</v>
       </c>
       <c r="Q13" t="n">
-        <v>96.87566713998355</v>
+        <v>96.87566713998352</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35644,31 +35644,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>282.3190661607201</v>
+        <v>282.3190661607202</v>
       </c>
       <c r="K14" t="n">
-        <v>474.3741250380625</v>
+        <v>474.3741250380626</v>
       </c>
       <c r="L14" t="n">
-        <v>625.777556066439</v>
+        <v>625.7775560664393</v>
       </c>
       <c r="M14" t="n">
-        <v>728.287436302058</v>
+        <v>728.2874363020583</v>
       </c>
       <c r="N14" t="n">
-        <v>744.7323009263698</v>
+        <v>744.73230092637</v>
       </c>
       <c r="O14" t="n">
-        <v>689.7596327870084</v>
+        <v>689.7596327870085</v>
       </c>
       <c r="P14" t="n">
-        <v>553.8443926134828</v>
+        <v>553.844392613483</v>
       </c>
       <c r="Q14" t="n">
-        <v>367.2547334404111</v>
+        <v>367.2547334404112</v>
       </c>
       <c r="R14" t="n">
-        <v>127.3573607845841</v>
+        <v>127.3573607845842</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35720,7 +35720,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1.049527853053107</v>
+        <v>1.049527853053121</v>
       </c>
       <c r="J15" t="n">
         <v>149.1393755069151</v>
@@ -35729,25 +35729,25 @@
         <v>333.8472147104634</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>495.6892250946983</v>
       </c>
       <c r="M15" t="n">
-        <v>396.1740331604302</v>
+        <v>597.9983376284119</v>
       </c>
       <c r="N15" t="n">
-        <v>628.3797610094305</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>552.400479798176</v>
+        <v>214.6935009225451</v>
       </c>
       <c r="P15" t="n">
-        <v>423.8217357839151</v>
+        <v>423.8217357839152</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>232.8901757426738</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>35.68303457970742</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,7 +35802,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>79.77992211066049</v>
+        <v>79.77992211066052</v>
       </c>
       <c r="K16" t="n">
         <v>262.2512393642057</v>
@@ -35811,19 +35811,19 @@
         <v>391.678604124378</v>
       </c>
       <c r="M16" t="n">
-        <v>423.4642343883427</v>
+        <v>423.4642343883428</v>
       </c>
       <c r="N16" t="n">
         <v>418.8847129209161</v>
       </c>
       <c r="O16" t="n">
-        <v>370.7297545606359</v>
+        <v>370.729754560636</v>
       </c>
       <c r="P16" t="n">
-        <v>293.4650856931358</v>
+        <v>293.4650856931359</v>
       </c>
       <c r="Q16" t="n">
-        <v>118.9021551044798</v>
+        <v>118.9021551044799</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35957,16 +35957,16 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>44.09163190712619</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>261.3487819164541</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
@@ -35975,16 +35975,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
         <v>427.9021712071395</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36194,19 +36194,19 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>187.1368183553855</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>603.4126137641938</v>
+        <v>592.1338044402481</v>
       </c>
       <c r="N21" t="n">
         <v>633.9373369238452</v>
@@ -36215,13 +36215,13 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36355,7 +36355,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K23" t="n">
         <v>479.454324036777</v>
@@ -36364,7 +36364,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902952</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
         <v>751.8584478193516</v>
@@ -36434,13 +36434,13 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>25.73094315394657</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
@@ -36449,16 +36449,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>485.6519634391653</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36607,7 +36607,7 @@
         <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P26" t="n">
         <v>559.5874541683811</v>
@@ -36668,10 +36668,10 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>337.2977496678996</v>
@@ -36680,22 +36680,22 @@
         <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>603.4126137641938</v>
+        <v>311.9917356041954</v>
       </c>
       <c r="N27" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>256.1654199113569</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36841,7 +36841,7 @@
         <v>735.3001107902948</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193519</v>
       </c>
       <c r="O29" t="n">
         <v>696.488651224316</v>
@@ -36853,7 +36853,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,16 +36908,16 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>101.892590396165</v>
       </c>
       <c r="M30" t="n">
-        <v>590.3485648394733</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
         <v>633.9373369238452</v>
@@ -37081,10 +37081,10 @@
         <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683816</v>
       </c>
       <c r="Q32" t="n">
         <v>371.5675334924728</v>
@@ -37142,16 +37142,16 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
@@ -37160,16 +37160,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>256.1654199113569</v>
+        <v>546.2057666753343</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37379,28 +37379,28 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>25.73094315394658</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>248.1585668488238</v>
       </c>
       <c r="Q36" t="n">
         <v>235.6178387625075</v>
@@ -37561,7 +37561,7 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R38" t="n">
         <v>129.8660843902404</v>
@@ -37616,16 +37616,16 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>23.94570355317167</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
@@ -37634,13 +37634,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>318.5044627483008</v>
       </c>
       <c r="P39" t="n">
         <v>427.9021712071395</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37801,7 +37801,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37859,28 +37859,28 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>332.6181808359224</v>
+        <v>469.7150632237159</v>
       </c>
       <c r="O42" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37938,7 +37938,7 @@
         <v>81.04648326295336</v>
       </c>
       <c r="K43" t="n">
-        <v>264.3325884096349</v>
+        <v>264.3325884096341</v>
       </c>
       <c r="L43" t="n">
         <v>394.3420143191314</v>
@@ -38102,22 +38102,22 @@
         <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>603.4126137641938</v>
+        <v>586.9504424351511</v>
       </c>
       <c r="N45" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>256.1654199113569</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
